--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prapo\Documents\MerdasUni\2023 - 1st Semester\BDDAD\LAPR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96257D3-D7E1-4066-8E02-A6D48DB39794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE373A83-AE7D-4006-95A3-0CAD96C96921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="236">
   <si>
     <t>Espécie</t>
   </si>
@@ -264,9 +264,6 @@
     <t>SUMMER RED</t>
   </si>
   <si>
-    <t>WELL'SPUR DELICIOUS</t>
-  </si>
-  <si>
     <t>NOIVA</t>
   </si>
   <si>
@@ -726,9 +723,6 @@
     <t>S. Cosme</t>
   </si>
   <si>
-    <t>Fevereiro a abril, agosto a outubro</t>
-  </si>
-  <si>
     <t>90 dias</t>
   </si>
   <si>
@@ -748,6 +742,15 @@
   </si>
   <si>
     <t>Perc.4</t>
+  </si>
+  <si>
+    <t>WELLSPUR DELICIOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agosto a outubro</t>
+  </si>
+  <si>
+    <t>Fevereiro a abril</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA74F46-7FB7-481B-9DAE-CE325D568C4A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2353,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2373,7 +2376,7 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2396,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2419,7 +2422,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2442,7 +2445,7 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2465,7 +2468,7 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2488,7 +2491,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2511,7 +2514,7 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2534,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2557,7 +2560,7 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -2580,7 +2583,7 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -2603,7 +2606,7 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -2626,7 +2629,7 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -2649,7 +2652,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -2672,7 +2675,7 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -2695,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -2718,7 +2721,7 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -2735,13 +2738,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>91</v>
-      </c>
-      <c r="C70" t="s">
-        <v>92</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -2749,13 +2752,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
-        <v>91</v>
-      </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
         <v>90</v>
       </c>
-      <c r="B72" t="s">
-        <v>91</v>
-      </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -2777,13 +2780,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
         <v>90</v>
       </c>
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -2791,365 +2794,368 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
         <v>96</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>97</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>98</v>
       </c>
-      <c r="D74" t="s">
+      <c r="H74" t="s">
         <v>99</v>
-      </c>
-      <c r="H74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
         <v>96</v>
       </c>
-      <c r="B75" t="s">
-        <v>97</v>
-      </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" t="s">
         <v>99</v>
-      </c>
-      <c r="H75" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
         <v>96</v>
       </c>
-      <c r="B76" t="s">
-        <v>97</v>
-      </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" t="s">
         <v>99</v>
-      </c>
-      <c r="H76" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" t="s">
         <v>96</v>
       </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" t="s">
         <v>99</v>
-      </c>
-      <c r="H77" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
         <v>96</v>
       </c>
-      <c r="B78" t="s">
-        <v>97</v>
-      </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" t="s">
         <v>99</v>
-      </c>
-      <c r="H78" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
         <v>96</v>
       </c>
-      <c r="B79" t="s">
-        <v>97</v>
-      </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" t="s">
         <v>99</v>
-      </c>
-      <c r="H79" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
         <v>96</v>
       </c>
-      <c r="B80" t="s">
-        <v>97</v>
-      </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" t="s">
         <v>99</v>
-      </c>
-      <c r="H80" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
         <v>107</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>108</v>
       </c>
-      <c r="C81" t="s">
-        <v>109</v>
-      </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" t="s">
         <v>110</v>
       </c>
-      <c r="B82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" t="s">
-        <v>111</v>
-      </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
         <v>112</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>113</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
         <v>114</v>
       </c>
-      <c r="D83" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>115</v>
-      </c>
-      <c r="H83" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s">
         <v>112</v>
       </c>
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H84" t="s">
         <v>115</v>
-      </c>
-      <c r="H84" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
         <v>118</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>119</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" t="s">
         <v>120</v>
       </c>
-      <c r="D85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>121</v>
-      </c>
-      <c r="H85" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
         <v>123</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>124</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
         <v>125</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
         <v>123</v>
       </c>
-      <c r="B87" t="s">
-        <v>124</v>
-      </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
         <v>123</v>
       </c>
-      <c r="B89" t="s">
-        <v>124</v>
-      </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
         <v>123</v>
       </c>
-      <c r="B90" t="s">
-        <v>124</v>
-      </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
         <v>123</v>
       </c>
-      <c r="B92" t="s">
-        <v>124</v>
-      </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
         <v>123</v>
       </c>
-      <c r="B93" t="s">
-        <v>124</v>
-      </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
         <v>224</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>225</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" t="s">
+        <v>234</v>
+      </c>
+      <c r="H94" t="s">
         <v>226</v>
-      </c>
-      <c r="D94" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" t="s">
-        <v>227</v>
-      </c>
-      <c r="H94" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3163,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE3C6-089F-4A17-B7E6-182E6A73873F}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,63 +3189,63 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" t="s">
-        <v>148</v>
       </c>
       <c r="G2" s="5">
         <v>0.2</v>
@@ -3247,22 +3253,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
       </c>
       <c r="G3" s="5">
         <v>0.8</v>
@@ -3270,34 +3276,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
         <v>152</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
       </c>
       <c r="G4" s="5">
         <v>0.249</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="3">
         <v>0.06</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" s="4">
         <v>0.17599999999999999</v>
@@ -3305,28 +3311,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>155</v>
       </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="5">
         <v>0.151</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" s="4">
         <v>0.20799999999999999</v>
@@ -3334,40 +3340,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
         <v>160</v>
       </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" t="s">
-        <v>161</v>
-      </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="5">
         <v>0.09</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="4">
         <v>0.124</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M6" s="3">
         <v>0.01</v>
@@ -3375,28 +3381,28 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" t="s">
-        <v>165</v>
-      </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I7" s="3">
         <v>0.13</v>
@@ -3404,28 +3410,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
         <v>167</v>
       </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>168</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>169</v>
-      </c>
-      <c r="F8" t="s">
-        <v>170</v>
       </c>
       <c r="G8" s="5">
         <v>0.88200000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8" s="4">
         <v>1.9E-2</v>
@@ -3433,34 +3439,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
         <v>172</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>170</v>
       </c>
       <c r="G9" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="4">
         <v>0.14799999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" s="4">
         <v>7.9000000000000001E-2</v>
@@ -3476,7 +3482,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,19 +3493,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,16 +3513,16 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
       </c>
       <c r="D2">
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,16 +3530,16 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,16 +3547,16 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,16 +3564,16 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,16 +3581,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,16 +3598,16 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7">
         <v>0.3</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,16 +3615,16 @@
         <v>201</v>
       </c>
       <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
         <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
       </c>
       <c r="D8">
         <v>600</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3626,16 +3632,16 @@
         <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>800</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,16 +3649,16 @@
         <v>203</v>
       </c>
       <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
       </c>
       <c r="D10">
         <v>900</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,10 +3666,10 @@
         <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,16 +3677,16 @@
         <v>301</v>
       </c>
       <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
         <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>193</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3700,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,28 +3713,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>196</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>197</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3736,10 +3742,10 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -3751,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3759,10 +3765,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3774,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3782,10 +3788,10 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -3797,7 +3803,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3805,10 +3811,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -3820,7 +3826,7 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3828,10 +3834,10 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -3843,7 +3849,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3851,10 +3857,10 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -3866,7 +3872,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3874,13 +3880,13 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>44114</v>
@@ -3892,7 +3898,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3900,13 +3906,13 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1">
         <v>44296</v>
@@ -3918,7 +3924,7 @@
         <v>0.9</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,13 +3932,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1">
         <v>44301</v>
@@ -3944,7 +3950,7 @@
         <v>0.9</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3952,13 +3958,13 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1">
         <v>44472</v>
@@ -3970,7 +3976,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,13 +3984,13 @@
         <v>106</v>
       </c>
       <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
         <v>221</v>
       </c>
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1">
         <v>43871</v>
@@ -3996,7 +4002,7 @@
         <v>0.15</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,13 +4010,13 @@
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1">
         <v>43984</v>
@@ -4022,7 +4028,7 @@
         <v>0.1</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,13 +4036,13 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1">
         <v>44094</v>
@@ -4048,7 +4054,7 @@
         <v>0.2</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,13 +4062,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1">
         <v>44237</v>
@@ -4074,7 +4080,7 @@
         <v>0.15</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,13 +4088,13 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1">
         <v>44349</v>
@@ -4100,7 +4106,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4108,13 +4114,13 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
         <v>44459</v>
@@ -4126,7 +4132,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4144,7 +4150,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="I38" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4161,31 +4167,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4193,13 +4199,13 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>201</v>
       </c>
       <c r="F2" s="1">
         <v>42649</v>
@@ -4208,7 +4214,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4216,13 +4222,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="1">
         <v>42653</v>
@@ -4231,7 +4237,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4239,13 +4245,13 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1">
         <v>42742</v>
@@ -4254,7 +4260,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4262,13 +4268,13 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1">
         <v>42743</v>
@@ -4277,7 +4283,7 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4285,13 +4291,13 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1">
         <v>42743</v>
@@ -4300,7 +4306,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,10 +4314,10 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4323,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4331,10 +4337,10 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -4346,7 +4352,7 @@
         <v>3.5</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,10 +4360,10 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -4369,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4377,13 +4383,13 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
         <v>43043</v>
@@ -4392,7 +4398,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4400,13 +4406,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1">
         <v>43043</v>
@@ -4415,7 +4421,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,16 +4429,16 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
         <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" t="s">
-        <v>201</v>
       </c>
       <c r="F12" s="1">
         <v>43079</v>
@@ -4441,10 +4447,10 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4452,16 +4458,16 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F13" s="1">
         <v>43079</v>
@@ -4470,10 +4476,10 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,10 +4487,10 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -4496,7 +4502,7 @@
         <v>3.5</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4504,10 +4510,10 @@
         <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -4519,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,10 +4533,10 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -4542,7 +4548,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4550,10 +4556,10 @@
         <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -4565,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4573,13 +4579,13 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
         <v>43421</v>
@@ -4588,7 +4594,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4596,13 +4602,13 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="1">
         <v>43421</v>
@@ -4611,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4619,13 +4625,13 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1">
         <v>43444</v>
@@ -4634,7 +4640,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4642,10 +4648,10 @@
         <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
@@ -4657,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4665,10 +4671,10 @@
         <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
@@ -4680,7 +4686,7 @@
         <v>4.5</v>
       </c>
       <c r="H22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4688,13 +4694,13 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
         <v>43784</v>
@@ -4703,7 +4709,7 @@
         <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4711,13 +4717,13 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F24" s="1">
         <v>43784</v>
@@ -4726,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4734,13 +4740,13 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="1">
         <v>43956</v>
@@ -4749,7 +4755,7 @@
         <v>2200</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4757,13 +4763,13 @@
         <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="1">
         <v>43966</v>
@@ -4772,7 +4778,7 @@
         <v>1400</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,13 +4786,13 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" s="1">
         <v>43984</v>
@@ -4795,7 +4801,7 @@
         <v>0.6</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4803,13 +4809,13 @@
         <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="1">
         <v>44071</v>
@@ -4818,7 +4824,7 @@
         <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4826,13 +4832,13 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="1">
         <v>44081</v>
@@ -4841,7 +4847,7 @@
         <v>1800</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,13 +4855,13 @@
         <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F30" s="1">
         <v>44094</v>
@@ -4864,7 +4870,7 @@
         <v>0.6</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,13 +4878,13 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1">
         <v>44114</v>
@@ -4887,7 +4893,7 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4895,13 +4901,13 @@
         <v>106</v>
       </c>
       <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" t="s">
         <v>221</v>
-      </c>
-      <c r="C32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" t="s">
-        <v>222</v>
       </c>
       <c r="F32" s="1">
         <v>44114</v>
@@ -4910,7 +4916,7 @@
         <v>0.9</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4918,13 +4924,13 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
         <v>44145</v>
@@ -4933,7 +4939,7 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4941,13 +4947,13 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F34" s="1">
         <v>44145</v>
@@ -4956,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,13 +4970,13 @@
         <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F35" s="1">
         <v>44150</v>
@@ -4979,7 +4985,7 @@
         <v>600</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4987,13 +4993,13 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="1">
         <v>44170</v>
@@ -5002,7 +5008,7 @@
         <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,13 +5016,13 @@
         <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F37" s="1">
         <v>44170</v>
@@ -5025,7 +5031,7 @@
         <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5033,16 +5039,16 @@
         <v>102</v>
       </c>
       <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" t="s">
         <v>200</v>
-      </c>
-      <c r="C38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" t="s">
-        <v>201</v>
       </c>
       <c r="F38" s="1">
         <v>44175</v>
@@ -5051,10 +5057,10 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,16 +5068,16 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="1">
         <v>44175</v>
@@ -5080,10 +5086,10 @@
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,13 +5097,13 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F40" s="1">
         <v>44180</v>
@@ -5106,7 +5112,7 @@
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5114,13 +5120,13 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="1">
         <v>44180</v>
@@ -5129,7 +5135,7 @@
         <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5137,13 +5143,13 @@
         <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F42" s="1">
         <v>44183</v>
@@ -5152,7 +5158,7 @@
         <v>2500</v>
       </c>
       <c r="H42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,13 +5166,13 @@
         <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F43" s="1">
         <v>44200</v>
@@ -5175,7 +5181,7 @@
         <v>2900</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5183,13 +5189,13 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F44" s="1">
         <v>44285</v>
@@ -5200,13 +5206,13 @@
         <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" s="1">
         <v>44301</v>
@@ -5215,7 +5221,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,13 +5229,13 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s">
         <v>217</v>
-      </c>
-      <c r="D46" t="s">
-        <v>218</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -5241,10 +5247,10 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5252,13 +5258,13 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1">
         <v>44321</v>
@@ -5267,7 +5273,7 @@
         <v>2200</v>
       </c>
       <c r="H47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5275,13 +5281,13 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1">
         <v>44331</v>
@@ -5290,7 +5296,7 @@
         <v>1400</v>
       </c>
       <c r="H48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5298,13 +5304,13 @@
         <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="1">
         <v>44349</v>
@@ -5313,7 +5319,7 @@
         <v>0.6</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5321,10 +5327,10 @@
         <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -5336,7 +5342,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5344,13 +5350,13 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1">
         <v>44429</v>
@@ -5359,7 +5365,7 @@
         <v>3300</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,13 +5373,13 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1">
         <v>44432</v>
@@ -5382,7 +5388,7 @@
         <v>900</v>
       </c>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5390,13 +5396,13 @@
         <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1">
         <v>44436</v>
@@ -5405,7 +5411,7 @@
         <v>600</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5413,13 +5419,13 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F54" s="1">
         <v>44444</v>
@@ -5428,7 +5434,7 @@
         <v>800</v>
       </c>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5436,13 +5442,13 @@
         <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F55" s="1">
         <v>44446</v>
@@ -5451,7 +5457,7 @@
         <v>1800</v>
       </c>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5459,13 +5465,13 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1">
         <v>44451</v>
@@ -5474,7 +5480,7 @@
         <v>800</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5482,13 +5488,13 @@
         <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F57" s="1">
         <v>44459</v>
@@ -5497,7 +5503,7 @@
         <v>0.6</v>
       </c>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5505,13 +5511,13 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F58" s="1">
         <v>44462</v>
@@ -5520,7 +5526,7 @@
         <v>1200</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5528,13 +5534,13 @@
         <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F59" s="1">
         <v>44472</v>
@@ -5548,13 +5554,13 @@
         <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="1">
         <v>44479</v>
@@ -5563,7 +5569,7 @@
         <v>0.9</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5571,13 +5577,13 @@
         <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F61" s="1">
         <v>44481</v>
@@ -5586,7 +5592,7 @@
         <v>950</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5594,13 +5600,13 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" s="1">
         <v>44503</v>
@@ -5609,7 +5615,7 @@
         <v>750</v>
       </c>
       <c r="H62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5617,13 +5623,13 @@
         <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F63" s="1">
         <v>44515</v>
@@ -5632,7 +5638,7 @@
         <v>600</v>
       </c>
       <c r="H63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5640,13 +5646,13 @@
         <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1">
         <v>44517</v>
@@ -5655,7 +5661,7 @@
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5663,13 +5669,13 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F65" s="1">
         <v>44517</v>
@@ -5678,7 +5684,7 @@
         <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,13 +5692,13 @@
         <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F66" s="1">
         <v>44528</v>
@@ -5701,7 +5707,7 @@
         <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5709,13 +5715,13 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F67" s="1">
         <v>44533</v>
@@ -5724,7 +5730,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5732,13 +5738,13 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F68" s="1">
         <v>44548</v>
@@ -5747,7 +5753,7 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5755,13 +5761,13 @@
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F69" s="1">
         <v>44548</v>
@@ -5770,7 +5776,7 @@
         <v>2500</v>
       </c>
       <c r="H69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5778,13 +5784,13 @@
         <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F70" s="1">
         <v>44565</v>
@@ -5793,7 +5799,7 @@
         <v>2900</v>
       </c>
       <c r="H70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,13 +5807,13 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F71" s="1">
         <v>44656</v>
@@ -5818,13 +5824,13 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F72" s="1">
         <v>44661</v>
@@ -5833,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5841,13 +5847,13 @@
         <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
         <v>217</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -5859,10 +5865,10 @@
         <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,13 +5876,13 @@
         <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F74" s="1">
         <v>44785</v>
@@ -5885,7 +5891,7 @@
         <v>3500</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,13 +5899,13 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F75" s="1">
         <v>44793</v>
@@ -5908,7 +5914,7 @@
         <v>950</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5916,13 +5922,13 @@
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" s="1">
         <v>44811</v>
@@ -5931,7 +5937,7 @@
         <v>830</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5939,13 +5945,13 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F77" s="1">
         <v>44815</v>
@@ -5954,7 +5960,7 @@
         <v>750</v>
       </c>
       <c r="H77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5962,13 +5968,13 @@
         <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1">
         <v>44824</v>
@@ -5977,7 +5983,7 @@
         <v>1150</v>
       </c>
       <c r="H78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5985,13 +5991,13 @@
         <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" s="1">
         <v>44851</v>
@@ -6000,7 +6006,7 @@
         <v>850</v>
       </c>
       <c r="H79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6008,13 +6014,13 @@
         <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F80" s="1">
         <v>44871</v>
@@ -6023,7 +6029,7 @@
         <v>900</v>
       </c>
       <c r="H80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,13 +6037,13 @@
         <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" s="1">
         <v>44875</v>
@@ -6046,7 +6052,7 @@
         <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -6054,13 +6060,13 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" s="1">
         <v>44875</v>
@@ -6069,7 +6075,7 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -6077,13 +6083,13 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" s="1">
         <v>44899</v>
@@ -6092,7 +6098,7 @@
         <v>70</v>
       </c>
       <c r="H83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -6100,13 +6106,13 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1">
         <v>44902</v>
@@ -6115,7 +6121,7 @@
         <v>90</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -6123,13 +6129,13 @@
         <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F85" s="1">
         <v>44938</v>
@@ -6138,7 +6144,7 @@
         <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prapo\Documents\MerdasUni\2023 - 1st Semester\BDDAD\LAPR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE373A83-AE7D-4006-95A3-0CAD96C96921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BC8C3-AFA4-44BE-A2D2-996149E1588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Operações" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Operações!$A$1:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Operações!$A$1:$I$209</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="258">
   <si>
     <t>Espécie</t>
   </si>
@@ -570,9 +570,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t>Unidade</t>
   </si>
   <si>
@@ -714,9 +711,6 @@
     <t>Cenoura Nelson Hybrid</t>
   </si>
   <si>
-    <t>Brassica rapa L.</t>
-  </si>
-  <si>
     <t>Nabo</t>
   </si>
   <si>
@@ -732,6 +726,87 @@
     <t>Solo</t>
   </si>
   <si>
+    <t>Sonata</t>
+  </si>
+  <si>
+    <t>Líquido</t>
+  </si>
+  <si>
+    <t>Bacillus pumilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLiPPER </t>
+  </si>
+  <si>
+    <t>Insecticida</t>
+  </si>
+  <si>
+    <t>Emulsão de óleo em água</t>
+  </si>
+  <si>
+    <t>Ácidos gordos (na forma de sais de potássio)</t>
+  </si>
+  <si>
+    <t>Terpenóides</t>
+  </si>
+  <si>
+    <t>Requiem Prime</t>
+  </si>
+  <si>
+    <t>Nabo greleiro Senhora Conceição</t>
+  </si>
+  <si>
+    <t>Milho MAS 24.C</t>
+  </si>
+  <si>
+    <t>Vitis vinifera</t>
+  </si>
+  <si>
+    <t>Videira</t>
+  </si>
+  <si>
+    <t>Dona Maria</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Dezembro a janeiro</t>
+  </si>
+  <si>
+    <t>Junho a agosto</t>
+  </si>
+  <si>
+    <t>Vinha</t>
+  </si>
+  <si>
+    <t>Videira Dona Maria</t>
+  </si>
+  <si>
+    <t>Cardinal</t>
+  </si>
+  <si>
+    <t>Dimensão</t>
+  </si>
+  <si>
+    <t>Poço da bouça</t>
+  </si>
+  <si>
+    <t>Videira Cardinal</t>
+  </si>
+  <si>
+    <t>Aplicação fitofármaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agosto a outubro</t>
+  </si>
+  <si>
+    <t>Fevereiro a abril</t>
+  </si>
+  <si>
+    <t>WELLSPUR DELICIOUS</t>
+  </si>
+  <si>
     <t>Perc.1</t>
   </si>
   <si>
@@ -742,15 +817,6 @@
   </si>
   <si>
     <t>Perc.4</t>
-  </si>
-  <si>
-    <t>WELLSPUR DELICIOUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> agosto a outubro</t>
-  </si>
-  <si>
-    <t>Fevereiro a abril</t>
   </si>
 </sst>
 </file>
@@ -760,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +844,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,16 +877,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA74F46-7FB7-481B-9DAE-CE325D568C4A}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2834,7 +2909,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
         <v>98</v>
@@ -3137,25 +3212,71 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" t="s">
         <v>223</v>
-      </c>
-      <c r="B94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" t="s">
-        <v>225</v>
       </c>
       <c r="D94" t="s">
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" t="s">
+        <v>241</v>
+      </c>
+      <c r="H95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>242</v>
+      </c>
+      <c r="G96" t="s">
+        <v>241</v>
+      </c>
+      <c r="H96" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3167,19 +3288,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE3C6-089F-4A17-B7E6-182E6A73873F}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -3188,44 +3310,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M1" t="s">
-        <v>232</v>
+      <c r="M1" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3471,6 +3593,78 @@
       <c r="K9" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.97740000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3479,33 +3673,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B01B56-4BBE-4836-8DCB-B3AF8DABE0BB}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,16 +3708,16 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
         <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>178</v>
       </c>
       <c r="D2">
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,16 +3725,16 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,16 +3742,16 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,16 +3759,16 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,16 +3776,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,98 +3793,135 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7">
         <v>0.3</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="D8">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
         <v>184</v>
       </c>
-      <c r="C9" t="s">
-        <v>187</v>
-      </c>
       <c r="D9">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>900</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>301</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
         <v>191</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>192</v>
       </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>193</v>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3697,10 +3929,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DE277-EC3F-46EA-8D39-A978B7AEA5AE}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,319 +3948,331 @@
         <v>174</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1">
-        <v>42649</v>
+        <v>44114</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44285</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1">
-        <v>42653</v>
+        <v>44296</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44420</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1">
-        <v>42742</v>
+        <v>44472</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44656</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1">
-        <v>42743</v>
+        <v>44666</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44794</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1">
-        <v>42743</v>
+        <v>43926</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44063</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1">
-        <v>43444</v>
+        <v>44116</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44270</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="1">
-        <v>44114</v>
+        <v>44289</v>
       </c>
       <c r="F8" s="1">
-        <v>44285</v>
+        <v>44433</v>
       </c>
       <c r="G8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="1">
-        <v>44296</v>
+        <v>44475</v>
       </c>
       <c r="F9" s="1">
-        <v>44420</v>
+        <v>44639</v>
       </c>
       <c r="G9">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="1">
-        <v>44301</v>
+        <v>44659</v>
       </c>
       <c r="F10" s="1">
-        <v>44429</v>
+        <v>44791</v>
       </c>
       <c r="G10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="1">
-        <v>44472</v>
+        <v>44846</v>
       </c>
       <c r="F11" s="1">
-        <v>44656</v>
+        <v>45005</v>
       </c>
       <c r="G11">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>43871</v>
-      </c>
-      <c r="F12" s="1">
-        <v>43966</v>
+        <v>42649</v>
       </c>
       <c r="G12">
-        <v>0.15</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>43984</v>
-      </c>
-      <c r="F13" s="1">
-        <v>44082</v>
+        <v>42653</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4036,25 +4280,25 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" t="s">
-        <v>227</v>
       </c>
       <c r="D14" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="1">
-        <v>44094</v>
+        <v>43900</v>
       </c>
       <c r="F14" s="1">
-        <v>44206</v>
+        <v>43966</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4062,25 +4306,25 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="1">
-        <v>44237</v>
+        <v>43984</v>
       </c>
       <c r="F15" s="1">
-        <v>44331</v>
+        <v>44082</v>
       </c>
       <c r="G15">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4088,25 +4332,25 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="1">
-        <v>44349</v>
+        <v>44094</v>
       </c>
       <c r="F16" s="1">
-        <v>44447</v>
+        <v>44206</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4114,31 +4358,299 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="1">
+        <v>44265</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44331</v>
+      </c>
+      <c r="G17">
+        <v>0.15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44349</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44447</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1">
         <v>44459</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F19" s="1">
         <v>44571</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="H17" t="s">
-        <v>179</v>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44626</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44697</v>
+      </c>
+      <c r="G20">
+        <v>0.15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44809</v>
+      </c>
+      <c r="G21">
+        <v>0.15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44824</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44940</v>
+      </c>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42742</v>
+      </c>
+      <c r="G23">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42743</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42743</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43444</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43110</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43111</v>
+      </c>
+      <c r="G28">
+        <v>700</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
-    <sortCondition ref="E2:E11"/>
-    <sortCondition ref="B2:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="E2:E28"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4147,10 +4659,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I39"/>
+      <selection activeCell="C117" sqref="C117:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,31 +4679,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,13 +4711,13 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
         <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
       </c>
       <c r="F2" s="1">
         <v>42649</v>
@@ -4214,7 +4726,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4222,13 +4734,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1">
         <v>42653</v>
@@ -4237,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4245,13 +4757,13 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1">
         <v>42742</v>
@@ -4260,7 +4772,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4268,13 +4780,13 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1">
         <v>42743</v>
@@ -4283,7 +4795,7 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4291,13 +4803,13 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="1">
         <v>42743</v>
@@ -4306,53 +4818,53 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1">
-        <v>42926</v>
+        <v>42919</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1">
-        <v>42957</v>
+        <v>42919</v>
       </c>
       <c r="G8">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4360,22 +4872,22 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1">
-        <v>42988</v>
+        <v>42926</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,22 +4895,22 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1">
-        <v>43043</v>
+        <v>42957</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4406,713 +4918,719 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
         <v>199</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>202</v>
-      </c>
       <c r="F11" s="1">
-        <v>43043</v>
+        <v>42957</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1">
-        <v>43079</v>
+        <v>42957</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1">
-        <v>43079</v>
+        <v>42988</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="F14" s="1">
-        <v>43291</v>
+        <v>43043</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F15" s="1">
-        <v>43322</v>
+        <v>43043</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43079</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43079</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1">
-        <v>43345</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1">
-        <v>43353</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>102</v>
-      </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43107</v>
+      </c>
+      <c r="G18">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="1">
-        <v>43421</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F19" s="1">
-        <v>43421</v>
+        <v>43108</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="1">
-        <v>43444</v>
+        <v>43108</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43110</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43111</v>
+      </c>
+      <c r="G22">
+        <v>700</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43137</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43137</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43137</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F26" s="1">
+        <v>43284</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43284</v>
+      </c>
+      <c r="G27">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>104</v>
       </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="1">
-        <v>43649</v>
-      </c>
-      <c r="G21">
+      <c r="F28" s="1">
+        <v>43291</v>
+      </c>
+      <c r="G28">
+        <v>3.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43291</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1">
+        <v>43322</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43322</v>
+      </c>
+      <c r="G31">
+        <v>1.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1">
+        <v>43322</v>
+      </c>
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1">
-        <v>43687</v>
-      </c>
-      <c r="G22">
-        <v>4.5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>102</v>
-      </c>
-      <c r="B23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="1">
-        <v>43784</v>
-      </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="1">
-        <v>43784</v>
-      </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="1">
-        <v>43956</v>
-      </c>
-      <c r="G25">
-        <v>2200</v>
-      </c>
-      <c r="H25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="1">
-        <v>43966</v>
-      </c>
-      <c r="G26">
-        <v>1400</v>
-      </c>
-      <c r="H26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43984</v>
-      </c>
-      <c r="G27">
-        <v>0.6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="1">
-        <v>44071</v>
-      </c>
-      <c r="G28">
-        <v>600</v>
-      </c>
-      <c r="H28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="1">
-        <v>44081</v>
-      </c>
-      <c r="G29">
-        <v>1800</v>
-      </c>
-      <c r="H29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="1">
-        <v>44094</v>
-      </c>
-      <c r="G30">
-        <v>0.6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G31">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G32">
-        <v>0.9</v>
-      </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="F33" s="1">
-        <v>44145</v>
+        <v>43323</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1">
-        <v>44145</v>
+        <v>43345</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1">
-        <v>44150</v>
+        <v>43353</v>
       </c>
       <c r="G35">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F36" s="1">
-        <v>44170</v>
+        <v>43421</v>
       </c>
       <c r="G36">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F37" s="1">
-        <v>44170</v>
+        <v>43421</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43444</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
         <v>200</v>
-      </c>
-      <c r="F38" s="1">
-        <v>44175</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="F39" s="1">
-        <v>44175</v>
+        <v>43450</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I39" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="F40" s="1">
-        <v>44180</v>
+        <v>43452</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>700</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5120,108 +5638,120 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F41" s="1">
-        <v>44180</v>
+        <v>43472</v>
       </c>
       <c r="G41">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F42" s="1">
-        <v>44183</v>
+        <v>43473</v>
       </c>
       <c r="G42">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1">
-        <v>44200</v>
+        <v>43473</v>
       </c>
       <c r="G43">
-        <v>2900</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F44" s="1">
-        <v>44285</v>
+        <v>43485</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="F45" s="1">
-        <v>44301</v>
+        <v>43485</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5229,946 +5759,3879 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="F46" s="1">
-        <v>44318</v>
+        <v>43502</v>
       </c>
       <c r="G46">
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1">
-        <v>44321</v>
+        <v>43502</v>
       </c>
       <c r="G47">
-        <v>2200</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="I47" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="1">
+        <v>43502</v>
+      </c>
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="1">
-        <v>44331</v>
-      </c>
-      <c r="G48">
-        <v>1400</v>
-      </c>
       <c r="H48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="F49" s="1">
-        <v>44349</v>
+        <v>43649</v>
       </c>
       <c r="G49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="1">
+        <v>43649</v>
+      </c>
+      <c r="G50">
+        <v>1.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>104</v>
       </c>
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="1">
-        <v>44382</v>
-      </c>
-      <c r="G50">
+      <c r="F51" s="1">
+        <v>43649</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="1">
+        <v>43656</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43687</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="1">
+        <v>43687</v>
+      </c>
+      <c r="G54">
+        <v>1.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="1">
+        <v>43687</v>
+      </c>
+      <c r="G55">
+        <v>4.5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="1">
+        <v>43688</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="H50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="1">
-        <v>44429</v>
-      </c>
-      <c r="G51">
-        <v>3300</v>
-      </c>
-      <c r="H51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="1">
-        <v>44432</v>
-      </c>
-      <c r="G52">
-        <v>900</v>
-      </c>
-      <c r="H52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="1">
-        <v>44436</v>
-      </c>
-      <c r="G53">
-        <v>600</v>
-      </c>
-      <c r="H53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="1">
-        <v>44444</v>
-      </c>
-      <c r="G54">
-        <v>800</v>
-      </c>
-      <c r="H54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="1">
-        <v>44446</v>
-      </c>
-      <c r="G55">
-        <v>1800</v>
-      </c>
-      <c r="H55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="1">
-        <v>44451</v>
-      </c>
-      <c r="G56">
-        <v>800</v>
-      </c>
-      <c r="H56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C57" t="s">
-        <v>214</v>
-      </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="F57" s="1">
-        <v>44459</v>
+        <v>43784</v>
       </c>
       <c r="G57">
-        <v>0.6</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F58" s="1">
-        <v>44462</v>
+        <v>43784</v>
       </c>
       <c r="G58">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F59" s="1">
-        <v>44472</v>
+        <v>43815</v>
       </c>
       <c r="G59">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="H59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="F60" s="1">
-        <v>44479</v>
+        <v>43817</v>
       </c>
       <c r="G60">
-        <v>0.9</v>
+        <v>700</v>
       </c>
       <c r="H60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F61" s="1">
-        <v>44481</v>
+        <v>43850</v>
       </c>
       <c r="G61">
-        <v>950</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1">
-        <v>44503</v>
+        <v>43850</v>
       </c>
       <c r="G62">
-        <v>750</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
       <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" t="s">
         <v>220</v>
       </c>
-      <c r="C63" t="s">
+      <c r="F63" s="1">
+        <v>43902</v>
+      </c>
+      <c r="G63">
+        <v>0.9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G64">
+        <v>600</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+      <c r="I64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G65">
+        <v>1.2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="1">
-        <v>44515</v>
-      </c>
-      <c r="G63">
-        <v>600</v>
-      </c>
-      <c r="H63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="1">
+        <v>43956</v>
+      </c>
+      <c r="G66">
+        <v>2200</v>
+      </c>
+      <c r="H66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="1">
+        <v>43966</v>
+      </c>
+      <c r="G67">
+        <v>1400</v>
+      </c>
+      <c r="H67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="1">
+        <v>43984</v>
+      </c>
+      <c r="G68">
+        <v>0.6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>102</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" t="s">
         <v>199</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="1">
-        <v>44517</v>
-      </c>
-      <c r="G64">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="F70" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G70">
+        <v>1.5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44022</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44027</v>
+      </c>
+      <c r="G73">
+        <v>2.5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44040</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>102</v>
+      </c>
+      <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="F75" s="1">
+        <v>44053</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>102</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
         <v>199</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="1">
-        <v>44517</v>
-      </c>
-      <c r="G65">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>104</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>205</v>
-      </c>
-      <c r="F66" s="1">
-        <v>44528</v>
-      </c>
-      <c r="G66">
-        <v>70</v>
-      </c>
-      <c r="H66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>104</v>
-      </c>
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>203</v>
-      </c>
-      <c r="F67" s="1">
-        <v>44533</v>
-      </c>
-      <c r="G67">
-        <v>90</v>
-      </c>
-      <c r="H67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>104</v>
-      </c>
-      <c r="B68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" s="1">
-        <v>44548</v>
-      </c>
-      <c r="G68">
-        <v>60</v>
-      </c>
-      <c r="H68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="F76" s="1">
+        <v>44053</v>
+      </c>
+      <c r="G76">
+        <v>1.5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44053</v>
+      </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44054</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>106</v>
       </c>
-      <c r="B69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s">
-        <v>227</v>
-      </c>
-      <c r="F69" s="1">
-        <v>44548</v>
-      </c>
-      <c r="G69">
-        <v>2500</v>
-      </c>
-      <c r="H69" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>106</v>
-      </c>
-      <c r="B70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>227</v>
-      </c>
-      <c r="F70" s="1">
-        <v>44565</v>
-      </c>
-      <c r="G70">
-        <v>2900</v>
-      </c>
-      <c r="H70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>101</v>
-      </c>
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="1">
-        <v>44656</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="1">
-        <v>44661</v>
-      </c>
-      <c r="G72">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>104</v>
-      </c>
-      <c r="B73" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="1">
-        <v>44694</v>
-      </c>
-      <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="H73" t="s">
-        <v>218</v>
-      </c>
-      <c r="I73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>101</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="1">
-        <v>44785</v>
-      </c>
-      <c r="G74">
-        <v>3500</v>
-      </c>
-      <c r="H74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>104</v>
-      </c>
-      <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>205</v>
-      </c>
-      <c r="F75" s="1">
-        <v>44793</v>
-      </c>
-      <c r="G75">
-        <v>950</v>
-      </c>
-      <c r="H75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>104</v>
-      </c>
-      <c r="B76" t="s">
-        <v>182</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>205</v>
-      </c>
-      <c r="F76" s="1">
-        <v>44811</v>
-      </c>
-      <c r="G76">
-        <v>830</v>
-      </c>
-      <c r="H76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>104</v>
-      </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>203</v>
-      </c>
-      <c r="F77" s="1">
-        <v>44815</v>
-      </c>
-      <c r="G77">
-        <v>750</v>
-      </c>
-      <c r="H77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="1">
-        <v>44824</v>
-      </c>
-      <c r="G78">
-        <v>1150</v>
-      </c>
-      <c r="H78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>104</v>
-      </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F79" s="1">
-        <v>44851</v>
+        <v>44055</v>
       </c>
       <c r="G79">
-        <v>850</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44063</v>
+      </c>
+      <c r="G80">
+        <v>3300</v>
+      </c>
+      <c r="H80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44071</v>
+      </c>
+      <c r="G81">
+        <v>600</v>
+      </c>
+      <c r="H81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44081</v>
+      </c>
+      <c r="G82">
+        <v>1800</v>
+      </c>
+      <c r="H82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44094</v>
+      </c>
+      <c r="G83">
+        <v>0.6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44114</v>
+      </c>
+      <c r="G84">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44116</v>
+      </c>
+      <c r="G85">
+        <v>1.3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44145</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>102</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44145</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="1">
+        <v>44150</v>
+      </c>
+      <c r="G88">
+        <v>600</v>
+      </c>
+      <c r="H88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
         <v>204</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F89" s="1">
+        <v>44170</v>
+      </c>
+      <c r="G89">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44170</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44175</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>217</v>
+      </c>
+      <c r="I91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44175</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92" t="s">
+        <v>217</v>
+      </c>
+      <c r="I92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G93">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G94">
+        <v>60</v>
+      </c>
+      <c r="H94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>245</v>
+      </c>
+      <c r="F95" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G95">
+        <v>500</v>
+      </c>
+      <c r="H95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>225</v>
+      </c>
+      <c r="F96" s="1">
+        <v>44183</v>
+      </c>
+      <c r="G96">
+        <v>2500</v>
+      </c>
+      <c r="H96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="1">
+        <v>44183</v>
+      </c>
+      <c r="G97">
+        <v>700</v>
+      </c>
+      <c r="H97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44200</v>
+      </c>
+      <c r="G98">
+        <v>2900</v>
+      </c>
+      <c r="H98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" t="s">
+        <v>245</v>
+      </c>
+      <c r="F99" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>217</v>
+      </c>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" t="s">
+        <v>249</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G100">
+        <v>2.5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>217</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="1">
+        <v>44265</v>
+      </c>
+      <c r="G101">
+        <v>0.9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" s="1">
+        <v>44269</v>
+      </c>
+      <c r="G102">
+        <v>1.3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="1">
+        <v>44285</v>
+      </c>
+      <c r="G103">
+        <v>1.3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" t="s">
+        <v>237</v>
+      </c>
+      <c r="F104" s="1">
+        <v>44289</v>
+      </c>
+      <c r="G104">
+        <v>1.2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" s="1">
+        <v>44301</v>
+      </c>
+      <c r="G105">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="1">
+        <v>44318</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>217</v>
+      </c>
+      <c r="I106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G107">
+        <v>2200</v>
+      </c>
+      <c r="H107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>103</v>
+      </c>
+      <c r="F108" s="1">
+        <v>44331</v>
+      </c>
+      <c r="G108">
+        <v>1400</v>
+      </c>
+      <c r="H108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="1">
+        <v>44349</v>
+      </c>
+      <c r="G109">
+        <v>0.6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>190</v>
+      </c>
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="1">
+        <v>44367</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" t="s">
+        <v>201</v>
+      </c>
+      <c r="F111" s="1">
+        <v>44380</v>
+      </c>
+      <c r="G111">
+        <v>0.8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E112" t="s">
+        <v>199</v>
+      </c>
+      <c r="F112" s="1">
+        <v>44380</v>
+      </c>
+      <c r="G112">
+        <v>1.5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="1">
+        <v>44382</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>106</v>
+      </c>
+      <c r="B114" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="1">
+        <v>44384</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" s="1">
+        <v>44387</v>
+      </c>
+      <c r="G115">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" s="1">
+        <v>44389</v>
+      </c>
+      <c r="G116">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117" s="1">
+        <v>44392</v>
+      </c>
+      <c r="G117">
+        <v>300</v>
+      </c>
+      <c r="H117" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>107</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F118" s="1">
+        <v>44397</v>
+      </c>
+      <c r="G118">
+        <v>400</v>
+      </c>
+      <c r="H118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>103</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>190</v>
+      </c>
+      <c r="E119" t="s">
+        <v>237</v>
+      </c>
+      <c r="F119" s="1">
+        <v>44401</v>
+      </c>
+      <c r="G119">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="1">
+        <v>44407</v>
+      </c>
+      <c r="G120">
+        <v>5.5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" s="1">
+        <v>44407</v>
+      </c>
+      <c r="G121">
+        <v>3.5</v>
+      </c>
+      <c r="H121" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>103</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" s="1">
+        <v>44415</v>
+      </c>
+      <c r="G122">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>102</v>
+      </c>
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" t="s">
+        <v>190</v>
+      </c>
+      <c r="E123" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" s="1">
+        <v>44418</v>
+      </c>
+      <c r="G123">
+        <v>0.8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" t="s">
+        <v>199</v>
+      </c>
+      <c r="F124" s="1">
+        <v>44418</v>
+      </c>
+      <c r="G124">
+        <v>1.5</v>
+      </c>
+      <c r="H124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>101</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>206</v>
+      </c>
+      <c r="F125" s="1">
+        <v>44420</v>
+      </c>
+      <c r="G125">
+        <v>3300</v>
+      </c>
+      <c r="H125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>106</v>
+      </c>
+      <c r="B126" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>104</v>
+      </c>
+      <c r="B127" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>204</v>
+      </c>
+      <c r="F127" s="1">
+        <v>44432</v>
+      </c>
+      <c r="G127">
+        <v>900</v>
+      </c>
+      <c r="H127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>103</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>237</v>
+      </c>
+      <c r="F128" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G128">
+        <v>3300</v>
+      </c>
+      <c r="H128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>106</v>
+      </c>
+      <c r="B129" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G129">
+        <v>600</v>
+      </c>
+      <c r="H129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>104</v>
+      </c>
+      <c r="B130" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G130">
+        <v>800</v>
+      </c>
+      <c r="H130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>106</v>
+      </c>
+      <c r="B131" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>101</v>
+      </c>
+      <c r="F131" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G131">
+        <v>1800</v>
+      </c>
+      <c r="H131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="1">
+        <v>44451</v>
+      </c>
+      <c r="G132">
+        <v>800</v>
+      </c>
+      <c r="H132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E133" t="s">
+        <v>225</v>
+      </c>
+      <c r="F133" s="1">
+        <v>44459</v>
+      </c>
+      <c r="G133">
+        <v>0.6</v>
+      </c>
+      <c r="H133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>104</v>
+      </c>
+      <c r="B134" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>202</v>
+      </c>
+      <c r="F134" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G134">
+        <v>1200</v>
+      </c>
+      <c r="H134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="E135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" s="1">
+        <v>44472</v>
+      </c>
+      <c r="G135">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="E136" t="s">
+        <v>205</v>
+      </c>
+      <c r="F136" s="1">
+        <v>44475</v>
+      </c>
+      <c r="G136">
+        <v>1.3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>104</v>
+      </c>
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>203</v>
+      </c>
+      <c r="F137" s="1">
+        <v>44481</v>
+      </c>
+      <c r="G137">
+        <v>950</v>
+      </c>
+      <c r="H137" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>104</v>
+      </c>
+      <c r="B138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>203</v>
+      </c>
+      <c r="F138" s="1">
+        <v>44503</v>
+      </c>
+      <c r="G138">
+        <v>750</v>
+      </c>
+      <c r="H138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>102</v>
+      </c>
+      <c r="B139" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F139" s="1">
+        <v>44510</v>
+      </c>
+      <c r="G139">
+        <v>210</v>
+      </c>
+      <c r="H139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>102</v>
+      </c>
+      <c r="B140" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" s="1">
+        <v>44510</v>
+      </c>
+      <c r="G140">
+        <v>120</v>
+      </c>
+      <c r="H140" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>106</v>
+      </c>
+      <c r="B141" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="1">
+        <v>44515</v>
+      </c>
+      <c r="G141">
+        <v>600</v>
+      </c>
+      <c r="H141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>102</v>
+      </c>
+      <c r="B142" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>199</v>
+      </c>
+      <c r="F142" s="1">
+        <v>44517</v>
+      </c>
+      <c r="G142">
+        <v>30</v>
+      </c>
+      <c r="H142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>102</v>
+      </c>
+      <c r="B143" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>201</v>
+      </c>
+      <c r="F143" s="1">
+        <v>44517</v>
+      </c>
+      <c r="G143">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>104</v>
+      </c>
+      <c r="B144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F144" s="1">
+        <v>44528</v>
+      </c>
+      <c r="G144">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>104</v>
+      </c>
+      <c r="B145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F145" s="1">
+        <v>44533</v>
+      </c>
+      <c r="G145">
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>107</v>
+      </c>
+      <c r="B146" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="1">
+        <v>44546</v>
+      </c>
+      <c r="G146">
+        <v>500</v>
+      </c>
+      <c r="H146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>104</v>
+      </c>
+      <c r="B147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>203</v>
+      </c>
+      <c r="F147" s="1">
+        <v>44548</v>
+      </c>
+      <c r="G147">
+        <v>60</v>
+      </c>
+      <c r="H147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>106</v>
+      </c>
+      <c r="B148" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F148" s="1">
+        <v>44548</v>
+      </c>
+      <c r="G148">
+        <v>2500</v>
+      </c>
+      <c r="H148" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>107</v>
+      </c>
+      <c r="B149" t="s">
+        <v>244</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>249</v>
+      </c>
+      <c r="F149" s="1">
+        <v>44548</v>
+      </c>
+      <c r="G149">
+        <v>700</v>
+      </c>
+      <c r="H149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>106</v>
+      </c>
+      <c r="B150" t="s">
+        <v>219</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>225</v>
+      </c>
+      <c r="F150" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G150">
+        <v>2900</v>
+      </c>
+      <c r="H150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>107</v>
+      </c>
+      <c r="B151" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" t="s">
+        <v>250</v>
+      </c>
+      <c r="E151" t="s">
+        <v>245</v>
+      </c>
+      <c r="F151" s="1">
+        <v>44581</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>217</v>
+      </c>
+      <c r="I151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>107</v>
+      </c>
+      <c r="B152" t="s">
+        <v>244</v>
+      </c>
+      <c r="C152" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" s="1">
+        <v>44581</v>
+      </c>
+      <c r="G152">
+        <v>3.5</v>
+      </c>
+      <c r="H152" t="s">
+        <v>217</v>
+      </c>
+      <c r="I152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>106</v>
+      </c>
+      <c r="B153" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" t="s">
+        <v>213</v>
+      </c>
+      <c r="E153" t="s">
+        <v>103</v>
+      </c>
+      <c r="F153" s="1">
+        <v>44626</v>
+      </c>
+      <c r="G153">
+        <v>0.9</v>
+      </c>
+      <c r="H153" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>103</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>214</v>
+      </c>
+      <c r="E154" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" s="1">
+        <v>44639</v>
+      </c>
+      <c r="G154">
+        <v>1.3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" t="s">
+        <v>205</v>
+      </c>
+      <c r="F155" s="1">
+        <v>44656</v>
+      </c>
+      <c r="G155">
+        <v>1.3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>103</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>213</v>
+      </c>
+      <c r="E156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" s="1">
+        <v>44659</v>
+      </c>
+      <c r="G156">
+        <v>1.2</v>
+      </c>
+      <c r="H156" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>101</v>
+      </c>
+      <c r="B157" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" t="s">
+        <v>213</v>
+      </c>
+      <c r="E157" t="s">
+        <v>206</v>
+      </c>
+      <c r="F157" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G157">
+        <v>30</v>
+      </c>
+      <c r="H157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>106</v>
+      </c>
+      <c r="B158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>103</v>
+      </c>
+      <c r="F158" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G158">
+        <v>2250</v>
+      </c>
+      <c r="H158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>104</v>
+      </c>
+      <c r="B159" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" t="s">
+        <v>215</v>
+      </c>
+      <c r="D159" t="s">
+        <v>216</v>
+      </c>
+      <c r="E159" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" s="1">
+        <v>44694</v>
+      </c>
+      <c r="G159">
+        <v>10</v>
+      </c>
+      <c r="H159" t="s">
+        <v>217</v>
+      </c>
+      <c r="I159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>106</v>
+      </c>
+      <c r="B160" t="s">
+        <v>219</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>103</v>
+      </c>
+      <c r="F160" s="1">
+        <v>44696</v>
+      </c>
+      <c r="G160">
+        <v>1300</v>
+      </c>
+      <c r="H160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>106</v>
+      </c>
+      <c r="B161" t="s">
+        <v>219</v>
+      </c>
+      <c r="C161" t="s">
+        <v>213</v>
+      </c>
+      <c r="E161" t="s">
+        <v>221</v>
+      </c>
+      <c r="F161" s="1">
+        <v>44711</v>
+      </c>
+      <c r="G161">
+        <v>0.6</v>
+      </c>
+      <c r="H161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>104</v>
+      </c>
+      <c r="B162" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>48</v>
+      </c>
+      <c r="F162" s="1">
+        <v>44717</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>106</v>
+      </c>
+      <c r="B163" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" t="s">
+        <v>221</v>
+      </c>
+      <c r="F163" s="1">
+        <v>44742</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>104</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" t="s">
+        <v>48</v>
+      </c>
+      <c r="F164" s="1">
+        <v>44744</v>
+      </c>
+      <c r="G164">
+        <v>5.5</v>
+      </c>
+      <c r="H164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>102</v>
+      </c>
+      <c r="B165" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" t="s">
+        <v>201</v>
+      </c>
+      <c r="F165" s="1">
+        <v>44745</v>
+      </c>
+      <c r="G165">
+        <v>0.8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>102</v>
+      </c>
+      <c r="B166" t="s">
+        <v>198</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" t="s">
+        <v>199</v>
+      </c>
+      <c r="F166" s="1">
+        <v>44745</v>
+      </c>
+      <c r="G166">
+        <v>1.5</v>
+      </c>
+      <c r="H166" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>107</v>
+      </c>
+      <c r="B167" t="s">
+        <v>244</v>
+      </c>
+      <c r="C167" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" t="s">
+        <v>249</v>
+      </c>
+      <c r="F167" s="1">
+        <v>44752</v>
+      </c>
+      <c r="G167">
+        <v>5</v>
+      </c>
+      <c r="H167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" t="s">
+        <v>190</v>
+      </c>
+      <c r="E168" t="s">
+        <v>237</v>
+      </c>
+      <c r="F168" s="1">
+        <v>44754</v>
+      </c>
+      <c r="G168">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>106</v>
+      </c>
+      <c r="B169" t="s">
+        <v>219</v>
+      </c>
+      <c r="C169" t="s">
+        <v>190</v>
+      </c>
+      <c r="E169" t="s">
+        <v>221</v>
+      </c>
+      <c r="F169" s="1">
+        <v>44757</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>107</v>
+      </c>
+      <c r="B170" t="s">
+        <v>244</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>245</v>
+      </c>
+      <c r="F170" s="1">
+        <v>44757</v>
+      </c>
+      <c r="G170">
+        <v>600</v>
+      </c>
+      <c r="H170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>107</v>
+      </c>
+      <c r="B171" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="1">
+        <v>44762</v>
+      </c>
+      <c r="G171">
+        <v>500</v>
+      </c>
+      <c r="H171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>103</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" t="s">
+        <v>237</v>
+      </c>
+      <c r="F172" s="1">
+        <v>44766</v>
+      </c>
+      <c r="G172">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>104</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" t="s">
+        <v>190</v>
+      </c>
+      <c r="E173" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173" s="1">
+        <v>44772</v>
+      </c>
+      <c r="G173">
+        <v>5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>106</v>
+      </c>
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" t="s">
+        <v>190</v>
+      </c>
+      <c r="E174" t="s">
+        <v>221</v>
+      </c>
+      <c r="F174" s="1">
+        <v>44772</v>
+      </c>
+      <c r="G174">
+        <v>2.5</v>
+      </c>
+      <c r="H174" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>103</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175" t="s">
+        <v>237</v>
+      </c>
+      <c r="F175" s="1">
+        <v>44780</v>
+      </c>
+      <c r="G175">
+        <v>15</v>
+      </c>
+      <c r="H175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>102</v>
+      </c>
+      <c r="B176" t="s">
+        <v>198</v>
+      </c>
+      <c r="C176" t="s">
+        <v>190</v>
+      </c>
+      <c r="E176" t="s">
+        <v>201</v>
+      </c>
+      <c r="F176" s="1">
+        <v>44783</v>
+      </c>
+      <c r="G176">
+        <v>0.8</v>
+      </c>
+      <c r="H176" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>102</v>
+      </c>
+      <c r="B177" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" t="s">
+        <v>190</v>
+      </c>
+      <c r="E177" t="s">
+        <v>199</v>
+      </c>
+      <c r="F177" s="1">
+        <v>44783</v>
+      </c>
+      <c r="G177">
+        <v>1.5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>107</v>
+      </c>
+      <c r="B178" t="s">
+        <v>244</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>249</v>
+      </c>
+      <c r="F178" s="1">
+        <v>44785</v>
+      </c>
+      <c r="G178">
+        <v>1200</v>
+      </c>
+      <c r="H178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>107</v>
+      </c>
+      <c r="B179" t="s">
+        <v>244</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>249</v>
+      </c>
+      <c r="F179" s="1">
+        <v>44785</v>
+      </c>
+      <c r="G179">
+        <v>600</v>
+      </c>
+      <c r="H179" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>101</v>
+      </c>
+      <c r="B180" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>206</v>
+      </c>
+      <c r="F180" s="1">
+        <v>44790</v>
+      </c>
+      <c r="G180">
+        <v>3500</v>
+      </c>
+      <c r="H180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>106</v>
+      </c>
+      <c r="B181" t="s">
+        <v>219</v>
+      </c>
+      <c r="C181" t="s">
+        <v>190</v>
+      </c>
+      <c r="E181" t="s">
+        <v>221</v>
+      </c>
+      <c r="F181" s="1">
+        <v>44790</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>103</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>237</v>
+      </c>
+      <c r="F182" s="1">
+        <v>44791</v>
+      </c>
+      <c r="G182">
+        <v>3300</v>
+      </c>
+      <c r="H182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>104</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>204</v>
+      </c>
+      <c r="F183" s="1">
+        <v>44793</v>
+      </c>
+      <c r="G183">
+        <v>950</v>
+      </c>
+      <c r="H183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>106</v>
+      </c>
+      <c r="B184" t="s">
+        <v>219</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>221</v>
+      </c>
+      <c r="F184" s="1">
+        <v>44797</v>
+      </c>
+      <c r="G184">
+        <v>650</v>
+      </c>
+      <c r="H184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>106</v>
+      </c>
+      <c r="B185" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>221</v>
+      </c>
+      <c r="F185" s="1">
+        <v>44809</v>
+      </c>
+      <c r="G185">
+        <v>1900</v>
+      </c>
+      <c r="H185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>104</v>
+      </c>
+      <c r="B186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>204</v>
+      </c>
+      <c r="F186" s="1">
+        <v>44811</v>
+      </c>
+      <c r="G186">
+        <v>830</v>
+      </c>
+      <c r="H186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>104</v>
+      </c>
+      <c r="B187" t="s">
+        <v>181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>202</v>
+      </c>
+      <c r="F187" s="1">
+        <v>44815</v>
+      </c>
+      <c r="G187">
+        <v>750</v>
+      </c>
+      <c r="H187" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>104</v>
+      </c>
+      <c r="B188" t="s">
+        <v>181</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>202</v>
+      </c>
+      <c r="F188" s="1">
+        <v>44824</v>
+      </c>
+      <c r="G188">
+        <v>1150</v>
+      </c>
+      <c r="H188" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>106</v>
+      </c>
+      <c r="B189" t="s">
+        <v>219</v>
+      </c>
+      <c r="C189" t="s">
+        <v>213</v>
+      </c>
+      <c r="E189" t="s">
+        <v>236</v>
+      </c>
+      <c r="F189" s="1">
+        <v>44824</v>
+      </c>
+      <c r="G189">
+        <v>0.6</v>
+      </c>
+      <c r="H189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>103</v>
+      </c>
+      <c r="B190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" t="s">
+        <v>213</v>
+      </c>
+      <c r="E190" t="s">
+        <v>205</v>
+      </c>
+      <c r="F190" s="1">
+        <v>44846</v>
+      </c>
+      <c r="G190">
+        <v>1.3</v>
+      </c>
+      <c r="H190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>104</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>203</v>
+      </c>
+      <c r="F191" s="1">
+        <v>44851</v>
+      </c>
+      <c r="G191">
+        <v>850</v>
+      </c>
+      <c r="H191" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>104</v>
+      </c>
+      <c r="B192" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>203</v>
+      </c>
+      <c r="F192" s="1">
         <v>44871</v>
       </c>
-      <c r="G80">
+      <c r="G192">
         <v>900</v>
       </c>
-      <c r="H80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="H192" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>102</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
         <v>199</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F193" s="1">
+        <v>44875</v>
+      </c>
+      <c r="G193">
+        <v>30</v>
+      </c>
+      <c r="H193" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>102</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194" t="s">
         <v>5</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E194" t="s">
+        <v>201</v>
+      </c>
+      <c r="F194" s="1">
+        <v>44875</v>
+      </c>
+      <c r="G194">
+        <v>20</v>
+      </c>
+      <c r="H194" t="s">
         <v>200</v>
       </c>
-      <c r="F81" s="1">
-        <v>44875</v>
-      </c>
-      <c r="G81">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>102</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>199</v>
+      </c>
+      <c r="F195" s="1">
+        <v>44877</v>
+      </c>
+      <c r="G195">
+        <v>300</v>
+      </c>
+      <c r="H195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>102</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="F196" s="1">
+        <v>44877</v>
+      </c>
+      <c r="G196">
+        <v>200</v>
+      </c>
+      <c r="H196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>106</v>
+      </c>
+      <c r="B197" t="s">
+        <v>219</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>236</v>
+      </c>
+      <c r="F197" s="1">
+        <v>44880</v>
+      </c>
+      <c r="G197">
+        <v>50</v>
+      </c>
+      <c r="H197" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>104</v>
+      </c>
+      <c r="B198" t="s">
+        <v>181</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>204</v>
+      </c>
+      <c r="F198" s="1">
+        <v>44899</v>
+      </c>
+      <c r="G198">
+        <v>70</v>
+      </c>
+      <c r="H198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>104</v>
+      </c>
+      <c r="B199" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+      <c r="F199" s="1">
+        <v>44902</v>
+      </c>
+      <c r="G199">
+        <v>90</v>
+      </c>
+      <c r="H199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>102</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B200" t="s">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>215</v>
+      </c>
+      <c r="D200" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" t="s">
         <v>199</v>
       </c>
-      <c r="C82" t="s">
+      <c r="F200" s="1">
+        <v>44906</v>
+      </c>
+      <c r="G200">
+        <v>15</v>
+      </c>
+      <c r="H200" t="s">
+        <v>217</v>
+      </c>
+      <c r="I200" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201" t="s">
+        <v>215</v>
+      </c>
+      <c r="D201" t="s">
+        <v>226</v>
+      </c>
+      <c r="E201" t="s">
+        <v>201</v>
+      </c>
+      <c r="F201" s="1">
+        <v>44906</v>
+      </c>
+      <c r="G201">
+        <v>10</v>
+      </c>
+      <c r="H201" t="s">
+        <v>217</v>
+      </c>
+      <c r="I201" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>107</v>
+      </c>
+      <c r="B202" t="s">
+        <v>244</v>
+      </c>
+      <c r="C202" t="s">
         <v>5</v>
       </c>
-      <c r="E82" t="s">
-        <v>202</v>
-      </c>
-      <c r="F82" s="1">
-        <v>44875</v>
-      </c>
-      <c r="G82">
-        <v>20</v>
-      </c>
-      <c r="H82" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E202" t="s">
+        <v>245</v>
+      </c>
+      <c r="F202" s="1">
+        <v>44911</v>
+      </c>
+      <c r="G202">
+        <v>500</v>
+      </c>
+      <c r="H202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>106</v>
+      </c>
+      <c r="B203" t="s">
+        <v>219</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>236</v>
+      </c>
+      <c r="F203" s="1">
+        <v>44913</v>
+      </c>
+      <c r="G203">
+        <v>200</v>
+      </c>
+      <c r="H203" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>107</v>
+      </c>
+      <c r="B204" t="s">
+        <v>244</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>249</v>
+      </c>
+      <c r="F204" s="1">
+        <v>44913</v>
+      </c>
+      <c r="G204">
+        <v>700</v>
+      </c>
+      <c r="H204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>104</v>
       </c>
-      <c r="B83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B205" t="s">
+        <v>181</v>
+      </c>
+      <c r="C205" t="s">
         <v>5</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E205" t="s">
+        <v>203</v>
+      </c>
+      <c r="F205" s="1">
+        <v>44938</v>
+      </c>
+      <c r="G205">
+        <v>60</v>
+      </c>
+      <c r="H205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>219</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>236</v>
+      </c>
+      <c r="F206" s="1">
+        <v>44940</v>
+      </c>
+      <c r="G206">
+        <v>250</v>
+      </c>
+      <c r="H206" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>107</v>
+      </c>
+      <c r="B207" t="s">
+        <v>244</v>
+      </c>
+      <c r="C207" t="s">
+        <v>250</v>
+      </c>
+      <c r="E207" t="s">
+        <v>245</v>
+      </c>
+      <c r="F207" s="1">
+        <v>44946</v>
+      </c>
+      <c r="G207">
+        <v>4</v>
+      </c>
+      <c r="H207" t="s">
+        <v>217</v>
+      </c>
+      <c r="I207" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>107</v>
+      </c>
+      <c r="B208" t="s">
+        <v>244</v>
+      </c>
+      <c r="C208" t="s">
+        <v>250</v>
+      </c>
+      <c r="E208" t="s">
+        <v>249</v>
+      </c>
+      <c r="F208" s="1">
+        <v>44946</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
+      </c>
+      <c r="H208" t="s">
+        <v>217</v>
+      </c>
+      <c r="I208" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>103</v>
+      </c>
+      <c r="B209" t="s">
+        <v>180</v>
+      </c>
+      <c r="C209" t="s">
+        <v>214</v>
+      </c>
+      <c r="E209" t="s">
         <v>205</v>
       </c>
-      <c r="F83" s="1">
-        <v>44899</v>
-      </c>
-      <c r="G83">
-        <v>70</v>
-      </c>
-      <c r="H83" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>104</v>
-      </c>
-      <c r="B84" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="1">
-        <v>44902</v>
-      </c>
-      <c r="G84">
-        <v>90</v>
-      </c>
-      <c r="H84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>104</v>
-      </c>
-      <c r="B85" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" s="1">
-        <v>44938</v>
-      </c>
-      <c r="G85">
-        <v>60</v>
-      </c>
-      <c r="H85" t="s">
-        <v>201</v>
+      <c r="F209" s="1">
+        <v>45005</v>
+      </c>
+      <c r="G209">
+        <v>1.3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="F2:F85"/>
-    <sortCondition ref="A2:A85"/>
+  <autoFilter ref="A1:I209" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I151">
+      <sortCondition ref="F2:F151"/>
+      <sortCondition ref="B2:B151"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I209">
+    <sortCondition ref="F2:F209"/>
+    <sortCondition ref="A2:A209"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6310,6 +9773,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6321,14 +9792,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prapo\Documents\MerdasUni\2023 - 1st Semester\BDDAD\LAPR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BC8C3-AFA4-44BE-A2D2-996149E1588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E183FDF-7FCA-4C96-9943-05D19AC2CD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="259">
   <si>
     <t>Espécie</t>
   </si>
@@ -264,6 +264,9 @@
     <t>SUMMER RED</t>
   </si>
   <si>
+    <t>WELL'SPUR DELICIOUS</t>
+  </si>
+  <si>
     <t>NOIVA</t>
   </si>
   <si>
@@ -717,6 +720,9 @@
     <t>S. Cosme</t>
   </si>
   <si>
+    <t>Fevereiro a abril, agosto a outubro</t>
+  </si>
+  <si>
     <t>90 dias</t>
   </si>
   <si>
@@ -798,13 +804,10 @@
     <t>Aplicação fitofármaco</t>
   </si>
   <si>
-    <t xml:space="preserve"> agosto a outubro</t>
-  </si>
-  <si>
-    <t>Fevereiro a abril</t>
-  </si>
-  <si>
-    <t>WELLSPUR DELICIOUS</t>
+    <t>Cenoura Sugarsnax Hybrid</t>
+  </si>
+  <si>
+    <t>Cenoura Danvers Half Long</t>
   </si>
   <si>
     <t>Perc.1</t>
@@ -826,7 +829,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,14 +847,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -877,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -887,7 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA74F46-7FB7-481B-9DAE-CE325D568C4A}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2422,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2451,7 +2445,7 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2474,7 +2468,7 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2497,7 +2491,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2520,7 +2514,7 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2543,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2566,7 +2560,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2589,7 +2583,7 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2612,7 +2606,7 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2635,7 +2629,7 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -2658,7 +2652,7 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -2681,7 +2675,7 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -2704,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -2727,7 +2721,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -2750,7 +2744,7 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -2773,7 +2767,7 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -2796,7 +2790,7 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -2813,13 +2807,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -2827,13 +2821,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
@@ -2841,13 +2835,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -2855,13 +2849,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -2869,414 +2863,411 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s">
         <v>100</v>
-      </c>
-      <c r="D75" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" t="s">
         <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" t="s">
-        <v>114</v>
-      </c>
-      <c r="H84" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE3C6-089F-4A17-B7E6-182E6A73873F}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -3311,63 +3302,63 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" s="5">
         <v>0.2</v>
@@ -3375,22 +3366,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="5">
         <v>0.8</v>
@@ -3398,34 +3389,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" s="5">
         <v>0.249</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" s="3">
         <v>0.06</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K4" s="4">
         <v>0.17599999999999999</v>
@@ -3433,28 +3424,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
         <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
       </c>
       <c r="G5" s="5">
         <v>0.151</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I5" s="4">
         <v>0.20799999999999999</v>
@@ -3462,40 +3453,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G6" s="5">
         <v>0.09</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I6" s="4">
         <v>0.124</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K6" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M6" s="3">
         <v>0.01</v>
@@ -3503,28 +3494,28 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I7" s="3">
         <v>0.13</v>
@@ -3532,28 +3523,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="5">
         <v>0.88200000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I8" s="4">
         <v>1.9E-2</v>
@@ -3561,34 +3552,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I9" s="4">
         <v>0.14799999999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K9" s="4">
         <v>7.9000000000000001E-2</v>
@@ -3596,22 +3587,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G10" s="4">
         <v>0.97740000000000005</v>
@@ -3619,22 +3610,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G11" s="4">
         <v>0.47799999999999998</v>
@@ -3642,29 +3633,26 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G12" s="4">
         <v>0.14419999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,7 +3664,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,19 +3676,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,16 +3696,16 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,16 +3713,16 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,16 +3730,16 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,16 +3747,16 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,16 +3764,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,16 +3781,16 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D7">
         <v>0.3</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,16 +3798,16 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,16 +3815,16 @@
         <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D9">
         <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,16 +3832,16 @@
         <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>800</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,16 +3849,16 @@
         <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D11">
         <v>900</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,10 +3866,10 @@
         <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,16 +3877,16 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,16 +3894,16 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D14">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3920,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,28 +3933,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,13 +3962,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1">
         <v>44114</v>
@@ -3992,7 +3980,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,13 +3988,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1">
         <v>44296</v>
@@ -4018,7 +4006,7 @@
         <v>0.9</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4026,13 +4014,13 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1">
         <v>44472</v>
@@ -4044,7 +4032,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,13 +4040,13 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1">
         <v>44666</v>
@@ -4070,7 +4058,7 @@
         <v>0.9</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,13 +4066,13 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1">
         <v>43926</v>
@@ -4096,7 +4084,7 @@
         <v>1.2</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,13 +4092,13 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1">
         <v>44116</v>
@@ -4122,7 +4110,7 @@
         <v>1.3</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4130,13 +4118,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1">
         <v>44289</v>
@@ -4148,7 +4136,7 @@
         <v>1.2</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,13 +4144,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
         <v>44475</v>
@@ -4174,7 +4162,7 @@
         <v>1.3</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,13 +4170,13 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>44659</v>
@@ -4200,7 +4188,7 @@
         <v>1.2</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4208,13 +4196,13 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1">
         <v>44846</v>
@@ -4226,7 +4214,7 @@
         <v>1.3</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,10 +4222,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -4249,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4257,10 +4245,10 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -4272,7 +4260,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4280,13 +4268,13 @@
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1">
         <v>43900</v>
@@ -4298,7 +4286,7 @@
         <v>0.15</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,13 +4294,13 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <v>43984</v>
@@ -4324,7 +4312,7 @@
         <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4332,13 +4320,13 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1">
         <v>44094</v>
@@ -4350,7 +4338,7 @@
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4358,13 +4346,13 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1">
         <v>44265</v>
@@ -4376,7 +4364,7 @@
         <v>0.15</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,13 +4372,13 @@
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
         <v>44349</v>
@@ -4402,7 +4390,7 @@
         <v>0.1</v>
       </c>
       <c r="H18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,13 +4398,13 @@
         <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1">
         <v>44459</v>
@@ -4428,7 +4416,7 @@
         <v>0.2</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,13 +4424,13 @@
         <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>44626</v>
@@ -4454,7 +4442,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,13 +4450,13 @@
         <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1">
         <v>44711</v>
@@ -4480,7 +4468,7 @@
         <v>0.15</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4488,13 +4476,13 @@
         <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1">
         <v>44824</v>
@@ -4506,7 +4494,7 @@
         <v>0.25</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4514,10 +4502,10 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -4529,7 +4517,7 @@
         <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4537,10 +4525,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -4552,7 +4540,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4560,10 +4548,10 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4575,7 +4563,7 @@
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4583,10 +4571,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -4598,7 +4586,7 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,10 +4594,10 @@
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -4621,7 +4609,7 @@
         <v>500</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4629,10 +4617,10 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -4644,7 +4632,7 @@
         <v>700</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4661,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C117" sqref="C117:H118"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,31 +4667,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4711,13 +4699,13 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
         <v>42649</v>
@@ -4726,7 +4714,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4734,13 +4722,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" s="1">
         <v>42653</v>
@@ -4749,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,13 +4745,13 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1">
         <v>42742</v>
@@ -4772,7 +4760,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4780,13 +4768,13 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1">
         <v>42743</v>
@@ -4795,7 +4783,7 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4803,13 +4791,13 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1">
         <v>42743</v>
@@ -4818,7 +4806,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4826,13 +4814,13 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1">
         <v>42919</v>
@@ -4841,7 +4829,7 @@
         <v>0.4</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4849,13 +4837,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1">
         <v>42919</v>
@@ -4864,7 +4852,7 @@
         <v>0.9</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4872,10 +4860,10 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -4887,7 +4875,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4895,13 +4883,13 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1">
         <v>42957</v>
@@ -4910,7 +4898,7 @@
         <v>0.4</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4918,13 +4906,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
         <v>42957</v>
@@ -4933,7 +4921,7 @@
         <v>0.9</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4941,10 +4929,10 @@
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -4956,7 +4944,7 @@
         <v>3.5</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,10 +4952,10 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -4979,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4987,13 +4975,13 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
         <v>43043</v>
@@ -5002,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,13 +4998,13 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1">
         <v>43043</v>
@@ -5025,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5033,16 +5021,16 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
         <v>43079</v>
@@ -5051,10 +5039,10 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,16 +5050,16 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1">
         <v>43079</v>
@@ -5080,10 +5068,10 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,13 +5079,13 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F18" s="1">
         <v>43107</v>
@@ -5106,7 +5094,7 @@
         <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5114,13 +5102,13 @@
         <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F19" s="1">
         <v>43108</v>
@@ -5129,7 +5117,7 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5137,13 +5125,13 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1">
         <v>43108</v>
@@ -5152,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,13 +5148,13 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F21" s="1">
         <v>43110</v>
@@ -5175,7 +5163,7 @@
         <v>500</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5183,13 +5171,13 @@
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F22" s="1">
         <v>43111</v>
@@ -5198,7 +5186,7 @@
         <v>700</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,16 +5194,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1">
         <v>43137</v>
@@ -5224,10 +5212,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5235,16 +5223,16 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1">
         <v>43137</v>
@@ -5253,10 +5241,10 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,16 +5252,16 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F25" s="1">
         <v>43137</v>
@@ -5282,10 +5270,10 @@
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5293,13 +5281,13 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F26" s="1">
         <v>43284</v>
@@ -5308,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5316,13 +5304,13 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
         <v>43284</v>
@@ -5331,7 +5319,7 @@
         <v>1.5</v>
       </c>
       <c r="H27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5327,10 @@
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
         <v>48</v>
@@ -5354,7 +5342,7 @@
         <v>3.5</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5362,13 +5350,13 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F29" s="1">
         <v>43291</v>
@@ -5377,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5385,13 +5373,13 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" s="1">
         <v>43322</v>
@@ -5400,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5408,13 +5396,13 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1">
         <v>43322</v>
@@ -5423,7 +5411,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5431,10 +5419,10 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
@@ -5446,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5454,13 +5442,13 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F33" s="1">
         <v>43323</v>
@@ -5469,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5477,10 +5465,10 @@
         <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -5492,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5500,10 +5488,10 @@
         <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
@@ -5515,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5523,13 +5511,13 @@
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36" s="1">
         <v>43421</v>
@@ -5538,7 +5526,7 @@
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5546,13 +5534,13 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F37" s="1">
         <v>43421</v>
@@ -5561,7 +5549,7 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,13 +5557,13 @@
         <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F38" s="1">
         <v>43444</v>
@@ -5584,7 +5572,7 @@
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5592,13 +5580,13 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F39" s="1">
         <v>43450</v>
@@ -5607,7 +5595,7 @@
         <v>500</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,13 +5603,13 @@
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F40" s="1">
         <v>43452</v>
@@ -5630,7 +5618,7 @@
         <v>700</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,13 +5626,13 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F41" s="1">
         <v>43472</v>
@@ -5653,7 +5641,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,13 +5649,13 @@
         <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F42" s="1">
         <v>43473</v>
@@ -5676,7 +5664,7 @@
         <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5684,13 +5672,13 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F43" s="1">
         <v>43473</v>
@@ -5699,7 +5687,7 @@
         <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5707,13 +5695,13 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F44" s="1">
         <v>43485</v>
@@ -5722,10 +5710,10 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5733,13 +5721,13 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F45" s="1">
         <v>43485</v>
@@ -5748,10 +5736,10 @@
         <v>2.5</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,16 +5747,16 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F46" s="1">
         <v>43502</v>
@@ -5777,10 +5765,10 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5788,16 +5776,16 @@
         <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F47" s="1">
         <v>43502</v>
@@ -5806,10 +5794,10 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5817,16 +5805,16 @@
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F48" s="1">
         <v>43502</v>
@@ -5835,10 +5823,10 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5846,13 +5834,13 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F49" s="1">
         <v>43649</v>
@@ -5861,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5869,13 +5857,13 @@
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1">
         <v>43649</v>
@@ -5884,7 +5872,7 @@
         <v>1.5</v>
       </c>
       <c r="H50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5892,10 +5880,10 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
@@ -5907,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5915,13 +5903,13 @@
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F52" s="1">
         <v>43656</v>
@@ -5930,7 +5918,7 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5938,13 +5926,13 @@
         <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F53" s="1">
         <v>43687</v>
@@ -5953,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5961,13 +5949,13 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1">
         <v>43687</v>
@@ -5976,7 +5964,7 @@
         <v>1.5</v>
       </c>
       <c r="H54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5984,10 +5972,10 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -5999,7 +5987,7 @@
         <v>4.5</v>
       </c>
       <c r="H55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,13 +5995,13 @@
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F56" s="1">
         <v>43688</v>
@@ -6022,7 +6010,7 @@
         <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -6030,13 +6018,13 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
         <v>43784</v>
@@ -6045,7 +6033,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,13 +6041,13 @@
         <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F58" s="1">
         <v>43784</v>
@@ -6068,7 +6056,7 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,13 +6064,13 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F59" s="1">
         <v>43815</v>
@@ -6091,7 +6079,7 @@
         <v>500</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6099,13 +6087,13 @@
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F60" s="1">
         <v>43817</v>
@@ -6114,7 +6102,7 @@
         <v>700</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -6122,13 +6110,13 @@
         <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F61" s="1">
         <v>43850</v>
@@ -6137,10 +6125,10 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6148,13 +6136,13 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F62" s="1">
         <v>43850</v>
@@ -6163,10 +6151,10 @@
         <v>2.5</v>
       </c>
       <c r="H62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -6174,13 +6162,13 @@
         <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F63" s="1">
         <v>43902</v>
@@ -6189,7 +6177,7 @@
         <v>0.9</v>
       </c>
       <c r="H63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6197,13 +6185,13 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F64" s="1">
         <v>43920</v>
@@ -6212,10 +6200,10 @@
         <v>600</v>
       </c>
       <c r="H64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -6223,13 +6211,13 @@
         <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F65" s="1">
         <v>43926</v>
@@ -6238,7 +6226,7 @@
         <v>1.2</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -6246,13 +6234,13 @@
         <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F66" s="1">
         <v>43956</v>
@@ -6261,7 +6249,7 @@
         <v>2200</v>
       </c>
       <c r="H66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6269,13 +6257,13 @@
         <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F67" s="1">
         <v>43966</v>
@@ -6284,7 +6272,7 @@
         <v>1400</v>
       </c>
       <c r="H67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6292,13 +6280,13 @@
         <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F68" s="1">
         <v>43984</v>
@@ -6307,7 +6295,7 @@
         <v>0.6</v>
       </c>
       <c r="H68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6315,13 +6303,13 @@
         <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F69" s="1">
         <v>44015</v>
@@ -6330,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6338,13 +6326,13 @@
         <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F70" s="1">
         <v>44015</v>
@@ -6353,7 +6341,7 @@
         <v>1.5</v>
       </c>
       <c r="H70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6361,13 +6349,13 @@
         <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F71" s="1">
         <v>44022</v>
@@ -6376,7 +6364,7 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6384,13 +6372,13 @@
         <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F72" s="1">
         <v>44024</v>
@@ -6399,7 +6387,7 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -6407,13 +6395,13 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F73" s="1">
         <v>44027</v>
@@ -6422,7 +6410,7 @@
         <v>2.5</v>
       </c>
       <c r="H73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6430,13 +6418,13 @@
         <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F74" s="1">
         <v>44040</v>
@@ -6445,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -6453,13 +6441,13 @@
         <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F75" s="1">
         <v>44053</v>
@@ -6468,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -6476,13 +6464,13 @@
         <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F76" s="1">
         <v>44053</v>
@@ -6491,7 +6479,7 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -6499,13 +6487,13 @@
         <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F77" s="1">
         <v>44053</v>
@@ -6514,7 +6502,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,13 +6510,13 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F78" s="1">
         <v>44054</v>
@@ -6537,7 +6525,7 @@
         <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -6545,13 +6533,13 @@
         <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F79" s="1">
         <v>44055</v>
@@ -6560,7 +6548,7 @@
         <v>3.5</v>
       </c>
       <c r="H79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6568,13 +6556,13 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F80" s="1">
         <v>44063</v>
@@ -6583,7 +6571,7 @@
         <v>3300</v>
       </c>
       <c r="H80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6591,13 +6579,13 @@
         <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F81" s="1">
         <v>44071</v>
@@ -6606,7 +6594,7 @@
         <v>600</v>
       </c>
       <c r="H81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6614,13 +6602,13 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F82" s="1">
         <v>44081</v>
@@ -6629,7 +6617,7 @@
         <v>1800</v>
       </c>
       <c r="H82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6637,13 +6625,13 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F83" s="1">
         <v>44094</v>
@@ -6652,7 +6640,7 @@
         <v>0.6</v>
       </c>
       <c r="H83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6660,13 +6648,13 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F84" s="1">
         <v>44114</v>
@@ -6675,7 +6663,7 @@
         <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6683,13 +6671,13 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F85" s="1">
         <v>44116</v>
@@ -6698,7 +6686,7 @@
         <v>1.3</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6706,13 +6694,13 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F86" s="1">
         <v>44145</v>
@@ -6721,7 +6709,7 @@
         <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,13 +6717,13 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F87" s="1">
         <v>44145</v>
@@ -6744,7 +6732,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,13 +6740,13 @@
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F88" s="1">
         <v>44150</v>
@@ -6767,7 +6755,7 @@
         <v>600</v>
       </c>
       <c r="H88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6775,13 +6763,13 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F89" s="1">
         <v>44170</v>
@@ -6790,7 +6778,7 @@
         <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6798,13 +6786,13 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F90" s="1">
         <v>44170</v>
@@ -6813,7 +6801,7 @@
         <v>50</v>
       </c>
       <c r="H90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6821,16 +6809,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F91" s="1">
         <v>44175</v>
@@ -6839,10 +6827,10 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6850,16 +6838,16 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F92" s="1">
         <v>44175</v>
@@ -6868,10 +6856,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,13 +6867,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F93" s="1">
         <v>44180</v>
@@ -6894,7 +6882,7 @@
         <v>40</v>
       </c>
       <c r="H93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,13 +6890,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F94" s="1">
         <v>44180</v>
@@ -6917,7 +6905,7 @@
         <v>60</v>
       </c>
       <c r="H94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6925,13 +6913,13 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F95" s="1">
         <v>44181</v>
@@ -6940,7 +6928,7 @@
         <v>500</v>
       </c>
       <c r="H95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6948,13 +6936,13 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F96" s="1">
         <v>44183</v>
@@ -6963,7 +6951,7 @@
         <v>2500</v>
       </c>
       <c r="H96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -6971,13 +6959,13 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F97" s="1">
         <v>44183</v>
@@ -6986,7 +6974,7 @@
         <v>700</v>
       </c>
       <c r="H97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -6994,13 +6982,13 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F98" s="1">
         <v>44200</v>
@@ -7009,7 +6997,7 @@
         <v>2900</v>
       </c>
       <c r="H98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -7017,13 +7005,13 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F99" s="1">
         <v>44216</v>
@@ -7032,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -7043,13 +7031,13 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F100" s="1">
         <v>44216</v>
@@ -7058,10 +7046,10 @@
         <v>2.5</v>
       </c>
       <c r="H100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I100" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -7069,13 +7057,13 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F101" s="1">
         <v>44265</v>
@@ -7084,7 +7072,7 @@
         <v>0.9</v>
       </c>
       <c r="H101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -7092,13 +7080,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" s="1">
         <v>44269</v>
@@ -7107,7 +7095,7 @@
         <v>1.3</v>
       </c>
       <c r="H102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -7115,13 +7103,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F103" s="1">
         <v>44285</v>
@@ -7130,7 +7118,7 @@
         <v>1.3</v>
       </c>
       <c r="H103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -7138,13 +7126,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F104" s="1">
         <v>44289</v>
@@ -7153,7 +7141,7 @@
         <v>1.2</v>
       </c>
       <c r="H104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -7161,13 +7149,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F105" s="1">
         <v>44301</v>
@@ -7176,7 +7164,7 @@
         <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -7184,13 +7172,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
@@ -7202,10 +7190,10 @@
         <v>10</v>
       </c>
       <c r="H106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -7213,13 +7201,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F107" s="1">
         <v>44321</v>
@@ -7228,7 +7216,7 @@
         <v>2200</v>
       </c>
       <c r="H107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -7236,13 +7224,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F108" s="1">
         <v>44331</v>
@@ -7251,7 +7239,7 @@
         <v>1400</v>
       </c>
       <c r="H108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -7259,13 +7247,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F109" s="1">
         <v>44349</v>
@@ -7274,7 +7262,7 @@
         <v>0.6</v>
       </c>
       <c r="H109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -7282,13 +7270,13 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F110" s="1">
         <v>44367</v>
@@ -7297,7 +7285,7 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -7305,13 +7293,13 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F111" s="1">
         <v>44380</v>
@@ -7320,7 +7308,7 @@
         <v>0.8</v>
       </c>
       <c r="H111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -7328,13 +7316,13 @@
         <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F112" s="1">
         <v>44380</v>
@@ -7343,7 +7331,7 @@
         <v>1.5</v>
       </c>
       <c r="H112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,10 +7339,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
@@ -7366,7 +7354,7 @@
         <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7374,13 +7362,13 @@
         <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F114" s="1">
         <v>44384</v>
@@ -7389,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -7397,13 +7385,13 @@
         <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F115" s="1">
         <v>44387</v>
@@ -7412,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7420,13 +7408,13 @@
         <v>103</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F116" s="1">
         <v>44389</v>
@@ -7435,7 +7423,7 @@
         <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -7443,13 +7431,13 @@
         <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F117" s="1">
         <v>44392</v>
@@ -7458,7 +7446,7 @@
         <v>300</v>
       </c>
       <c r="H117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7466,13 +7454,13 @@
         <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F118" s="1">
         <v>44397</v>
@@ -7481,7 +7469,7 @@
         <v>400</v>
       </c>
       <c r="H118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7489,13 +7477,13 @@
         <v>103</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F119" s="1">
         <v>44401</v>
@@ -7504,7 +7492,7 @@
         <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,10 +7500,10 @@
         <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E120" t="s">
         <v>48</v>
@@ -7527,7 +7515,7 @@
         <v>5.5</v>
       </c>
       <c r="H120" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -7535,13 +7523,13 @@
         <v>106</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F121" s="1">
         <v>44407</v>
@@ -7550,7 +7538,7 @@
         <v>3.5</v>
       </c>
       <c r="H121" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7558,13 +7546,13 @@
         <v>103</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F122" s="1">
         <v>44415</v>
@@ -7573,7 +7561,7 @@
         <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7581,13 +7569,13 @@
         <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F123" s="1">
         <v>44418</v>
@@ -7596,7 +7584,7 @@
         <v>0.8</v>
       </c>
       <c r="H123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7604,13 +7592,13 @@
         <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F124" s="1">
         <v>44418</v>
@@ -7619,7 +7607,7 @@
         <v>1.5</v>
       </c>
       <c r="H124" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -7627,13 +7615,13 @@
         <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F125" s="1">
         <v>44420</v>
@@ -7642,7 +7630,7 @@
         <v>3300</v>
       </c>
       <c r="H125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7650,13 +7638,13 @@
         <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F126" s="1">
         <v>44425</v>
@@ -7665,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7673,13 +7661,13 @@
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F127" s="1">
         <v>44432</v>
@@ -7688,7 +7676,7 @@
         <v>900</v>
       </c>
       <c r="H127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7696,13 +7684,13 @@
         <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F128" s="1">
         <v>44433</v>
@@ -7711,7 +7699,7 @@
         <v>3300</v>
       </c>
       <c r="H128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7719,13 +7707,13 @@
         <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F129" s="1">
         <v>44436</v>
@@ -7734,7 +7722,7 @@
         <v>600</v>
       </c>
       <c r="H129" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7742,13 +7730,13 @@
         <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F130" s="1">
         <v>44444</v>
@@ -7757,7 +7745,7 @@
         <v>800</v>
       </c>
       <c r="H130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7765,13 +7753,13 @@
         <v>106</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="F131" s="1">
         <v>44446</v>
@@ -7780,7 +7768,7 @@
         <v>1800</v>
       </c>
       <c r="H131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7788,13 +7776,13 @@
         <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F132" s="1">
         <v>44451</v>
@@ -7803,7 +7791,7 @@
         <v>800</v>
       </c>
       <c r="H132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7811,13 +7799,13 @@
         <v>106</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F133" s="1">
         <v>44459</v>
@@ -7826,7 +7814,7 @@
         <v>0.6</v>
       </c>
       <c r="H133" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7834,13 +7822,13 @@
         <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F134" s="1">
         <v>44462</v>
@@ -7849,7 +7837,7 @@
         <v>1200</v>
       </c>
       <c r="H134" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7857,13 +7845,13 @@
         <v>101</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F135" s="1">
         <v>44472</v>
@@ -7877,13 +7865,13 @@
         <v>103</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E136" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F136" s="1">
         <v>44475</v>
@@ -7892,7 +7880,7 @@
         <v>1.3</v>
       </c>
       <c r="H136" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7900,13 +7888,13 @@
         <v>104</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F137" s="1">
         <v>44481</v>
@@ -7915,7 +7903,7 @@
         <v>950</v>
       </c>
       <c r="H137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7923,13 +7911,13 @@
         <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F138" s="1">
         <v>44503</v>
@@ -7938,7 +7926,7 @@
         <v>750</v>
       </c>
       <c r="H138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7946,13 +7934,13 @@
         <v>102</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F139" s="1">
         <v>44510</v>
@@ -7961,7 +7949,7 @@
         <v>210</v>
       </c>
       <c r="H139" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7969,13 +7957,13 @@
         <v>102</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F140" s="1">
         <v>44510</v>
@@ -7984,7 +7972,7 @@
         <v>120</v>
       </c>
       <c r="H140" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7992,13 +7980,13 @@
         <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F141" s="1">
         <v>44515</v>
@@ -8007,7 +7995,7 @@
         <v>600</v>
       </c>
       <c r="H141" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -8015,13 +8003,13 @@
         <v>102</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F142" s="1">
         <v>44517</v>
@@ -8030,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -8038,13 +8026,13 @@
         <v>102</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F143" s="1">
         <v>44517</v>
@@ -8053,7 +8041,7 @@
         <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -8061,13 +8049,13 @@
         <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F144" s="1">
         <v>44528</v>
@@ -8076,7 +8064,7 @@
         <v>70</v>
       </c>
       <c r="H144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -8084,13 +8072,13 @@
         <v>104</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F145" s="1">
         <v>44533</v>
@@ -8099,7 +8087,7 @@
         <v>90</v>
       </c>
       <c r="H145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -8107,13 +8095,13 @@
         <v>107</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F146" s="1">
         <v>44546</v>
@@ -8122,7 +8110,7 @@
         <v>500</v>
       </c>
       <c r="H146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -8130,13 +8118,13 @@
         <v>104</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F147" s="1">
         <v>44548</v>
@@ -8145,7 +8133,7 @@
         <v>60</v>
       </c>
       <c r="H147" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -8153,13 +8141,13 @@
         <v>106</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F148" s="1">
         <v>44548</v>
@@ -8168,7 +8156,7 @@
         <v>2500</v>
       </c>
       <c r="H148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -8176,13 +8164,13 @@
         <v>107</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F149" s="1">
         <v>44548</v>
@@ -8191,7 +8179,7 @@
         <v>700</v>
       </c>
       <c r="H149" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -8199,13 +8187,13 @@
         <v>106</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F150" s="1">
         <v>44565</v>
@@ -8214,7 +8202,7 @@
         <v>2900</v>
       </c>
       <c r="H150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -8222,13 +8210,13 @@
         <v>107</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C151" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E151" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F151" s="1">
         <v>44581</v>
@@ -8237,10 +8225,10 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I151" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -8248,13 +8236,13 @@
         <v>107</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F152" s="1">
         <v>44581</v>
@@ -8263,10 +8251,10 @@
         <v>3.5</v>
       </c>
       <c r="H152" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I152" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -8274,13 +8262,13 @@
         <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E153" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F153" s="1">
         <v>44626</v>
@@ -8289,7 +8277,7 @@
         <v>0.9</v>
       </c>
       <c r="H153" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -8297,13 +8285,13 @@
         <v>103</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E154" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F154" s="1">
         <v>44639</v>
@@ -8312,7 +8300,7 @@
         <v>1.3</v>
       </c>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -8320,13 +8308,13 @@
         <v>101</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E155" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F155" s="1">
         <v>44656</v>
@@ -8335,7 +8323,7 @@
         <v>1.3</v>
       </c>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -8343,13 +8331,13 @@
         <v>103</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C156" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F156" s="1">
         <v>44659</v>
@@ -8358,7 +8346,7 @@
         <v>1.2</v>
       </c>
       <c r="H156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -8366,13 +8354,13 @@
         <v>101</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E157" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F157" s="1">
         <v>44666</v>
@@ -8381,7 +8369,7 @@
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -8389,13 +8377,13 @@
         <v>106</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F158" s="1">
         <v>44686</v>
@@ -8404,7 +8392,7 @@
         <v>2250</v>
       </c>
       <c r="H158" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -8412,13 +8400,13 @@
         <v>104</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E159" t="s">
         <v>48</v>
@@ -8430,10 +8418,10 @@
         <v>10</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -8441,13 +8429,13 @@
         <v>106</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F160" s="1">
         <v>44696</v>
@@ -8456,7 +8444,7 @@
         <v>1300</v>
       </c>
       <c r="H160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -8464,13 +8452,13 @@
         <v>106</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C161" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F161" s="1">
         <v>44711</v>
@@ -8479,7 +8467,7 @@
         <v>0.6</v>
       </c>
       <c r="H161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -8487,10 +8475,10 @@
         <v>104</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E162" t="s">
         <v>48</v>
@@ -8502,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8510,13 +8498,13 @@
         <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F163" s="1">
         <v>44742</v>
@@ -8525,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8533,10 +8521,10 @@
         <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E164" t="s">
         <v>48</v>
@@ -8548,7 +8536,7 @@
         <v>5.5</v>
       </c>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -8556,13 +8544,13 @@
         <v>102</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E165" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F165" s="1">
         <v>44745</v>
@@ -8571,7 +8559,7 @@
         <v>0.8</v>
       </c>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -8579,13 +8567,13 @@
         <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E166" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F166" s="1">
         <v>44745</v>
@@ -8594,7 +8582,7 @@
         <v>1.5</v>
       </c>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8602,13 +8590,13 @@
         <v>107</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E167" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F167" s="1">
         <v>44752</v>
@@ -8617,7 +8605,7 @@
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8625,13 +8613,13 @@
         <v>103</v>
       </c>
       <c r="B168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F168" s="1">
         <v>44754</v>
@@ -8640,7 +8628,7 @@
         <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,13 +8636,13 @@
         <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F169" s="1">
         <v>44757</v>
@@ -8663,7 +8651,7 @@
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8671,13 +8659,13 @@
         <v>107</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F170" s="1">
         <v>44757</v>
@@ -8686,7 +8674,7 @@
         <v>600</v>
       </c>
       <c r="H170" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8694,13 +8682,13 @@
         <v>107</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F171" s="1">
         <v>44762</v>
@@ -8709,7 +8697,7 @@
         <v>500</v>
       </c>
       <c r="H171" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8717,13 +8705,13 @@
         <v>103</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F172" s="1">
         <v>44766</v>
@@ -8732,7 +8720,7 @@
         <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8740,10 +8728,10 @@
         <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E173" t="s">
         <v>48</v>
@@ -8755,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -8763,13 +8751,13 @@
         <v>106</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E174" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F174" s="1">
         <v>44772</v>
@@ -8778,7 +8766,7 @@
         <v>2.5</v>
       </c>
       <c r="H174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -8786,13 +8774,13 @@
         <v>103</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F175" s="1">
         <v>44780</v>
@@ -8801,7 +8789,7 @@
         <v>15</v>
       </c>
       <c r="H175" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -8809,13 +8797,13 @@
         <v>102</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E176" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F176" s="1">
         <v>44783</v>
@@ -8824,7 +8812,7 @@
         <v>0.8</v>
       </c>
       <c r="H176" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -8832,13 +8820,13 @@
         <v>102</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E177" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F177" s="1">
         <v>44783</v>
@@ -8847,7 +8835,7 @@
         <v>1.5</v>
       </c>
       <c r="H177" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -8855,13 +8843,13 @@
         <v>107</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F178" s="1">
         <v>44785</v>
@@ -8870,7 +8858,7 @@
         <v>1200</v>
       </c>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -8878,13 +8866,13 @@
         <v>107</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F179" s="1">
         <v>44785</v>
@@ -8893,7 +8881,7 @@
         <v>600</v>
       </c>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8901,13 +8889,13 @@
         <v>101</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F180" s="1">
         <v>44790</v>
@@ -8916,7 +8904,7 @@
         <v>3500</v>
       </c>
       <c r="H180" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8924,13 +8912,13 @@
         <v>106</v>
       </c>
       <c r="B181" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C181" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E181" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F181" s="1">
         <v>44790</v>
@@ -8939,7 +8927,7 @@
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8947,13 +8935,13 @@
         <v>103</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F182" s="1">
         <v>44791</v>
@@ -8962,7 +8950,7 @@
         <v>3300</v>
       </c>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8970,13 +8958,13 @@
         <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F183" s="1">
         <v>44793</v>
@@ -8985,7 +8973,7 @@
         <v>950</v>
       </c>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8993,13 +8981,13 @@
         <v>106</v>
       </c>
       <c r="B184" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F184" s="1">
         <v>44797</v>
@@ -9008,7 +8996,7 @@
         <v>650</v>
       </c>
       <c r="H184" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -9016,13 +9004,13 @@
         <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F185" s="1">
         <v>44809</v>
@@ -9031,7 +9019,7 @@
         <v>1900</v>
       </c>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -9039,13 +9027,13 @@
         <v>104</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F186" s="1">
         <v>44811</v>
@@ -9054,7 +9042,7 @@
         <v>830</v>
       </c>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -9062,13 +9050,13 @@
         <v>104</v>
       </c>
       <c r="B187" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F187" s="1">
         <v>44815</v>
@@ -9077,7 +9065,7 @@
         <v>750</v>
       </c>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -9085,13 +9073,13 @@
         <v>104</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F188" s="1">
         <v>44824</v>
@@ -9100,7 +9088,7 @@
         <v>1150</v>
       </c>
       <c r="H188" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -9108,13 +9096,13 @@
         <v>106</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C189" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E189" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F189" s="1">
         <v>44824</v>
@@ -9123,7 +9111,7 @@
         <v>0.6</v>
       </c>
       <c r="H189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -9131,13 +9119,13 @@
         <v>103</v>
       </c>
       <c r="B190" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F190" s="1">
         <v>44846</v>
@@ -9146,7 +9134,7 @@
         <v>1.3</v>
       </c>
       <c r="H190" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -9154,13 +9142,13 @@
         <v>104</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F191" s="1">
         <v>44851</v>
@@ -9169,7 +9157,7 @@
         <v>850</v>
       </c>
       <c r="H191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -9177,13 +9165,13 @@
         <v>104</v>
       </c>
       <c r="B192" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F192" s="1">
         <v>44871</v>
@@ -9192,7 +9180,7 @@
         <v>900</v>
       </c>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -9200,13 +9188,13 @@
         <v>102</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F193" s="1">
         <v>44875</v>
@@ -9215,7 +9203,7 @@
         <v>30</v>
       </c>
       <c r="H193" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -9223,13 +9211,13 @@
         <v>102</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F194" s="1">
         <v>44875</v>
@@ -9238,7 +9226,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -9246,13 +9234,13 @@
         <v>102</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F195" s="1">
         <v>44877</v>
@@ -9261,7 +9249,7 @@
         <v>300</v>
       </c>
       <c r="H195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -9269,13 +9257,13 @@
         <v>102</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F196" s="1">
         <v>44877</v>
@@ -9284,7 +9272,7 @@
         <v>200</v>
       </c>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -9292,13 +9280,13 @@
         <v>106</v>
       </c>
       <c r="B197" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F197" s="1">
         <v>44880</v>
@@ -9307,7 +9295,7 @@
         <v>50</v>
       </c>
       <c r="H197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -9315,13 +9303,13 @@
         <v>104</v>
       </c>
       <c r="B198" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F198" s="1">
         <v>44899</v>
@@ -9330,7 +9318,7 @@
         <v>70</v>
       </c>
       <c r="H198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -9338,13 +9326,13 @@
         <v>104</v>
       </c>
       <c r="B199" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F199" s="1">
         <v>44902</v>
@@ -9353,7 +9341,7 @@
         <v>90</v>
       </c>
       <c r="H199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -9361,16 +9349,16 @@
         <v>102</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F200" s="1">
         <v>44906</v>
@@ -9379,10 +9367,10 @@
         <v>15</v>
       </c>
       <c r="H200" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I200" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -9390,16 +9378,16 @@
         <v>102</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D201" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F201" s="1">
         <v>44906</v>
@@ -9408,10 +9396,10 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I201" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -9419,13 +9407,13 @@
         <v>107</v>
       </c>
       <c r="B202" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F202" s="1">
         <v>44911</v>
@@ -9434,7 +9422,7 @@
         <v>500</v>
       </c>
       <c r="H202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -9442,13 +9430,13 @@
         <v>106</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F203" s="1">
         <v>44913</v>
@@ -9457,7 +9445,7 @@
         <v>200</v>
       </c>
       <c r="H203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -9465,13 +9453,13 @@
         <v>107</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F204" s="1">
         <v>44913</v>
@@ -9480,7 +9468,7 @@
         <v>700</v>
       </c>
       <c r="H204" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -9488,13 +9476,13 @@
         <v>104</v>
       </c>
       <c r="B205" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F205" s="1">
         <v>44938</v>
@@ -9503,7 +9491,7 @@
         <v>60</v>
       </c>
       <c r="H205" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -9511,13 +9499,13 @@
         <v>106</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F206" s="1">
         <v>44940</v>
@@ -9526,7 +9514,7 @@
         <v>250</v>
       </c>
       <c r="H206" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -9534,13 +9522,13 @@
         <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C207" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E207" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F207" s="1">
         <v>44946</v>
@@ -9549,10 +9537,10 @@
         <v>4</v>
       </c>
       <c r="H207" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I207" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -9560,13 +9548,13 @@
         <v>107</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E208" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F208" s="1">
         <v>44946</v>
@@ -9575,10 +9563,10 @@
         <v>5</v>
       </c>
       <c r="H208" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I208" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9586,13 +9574,13 @@
         <v>103</v>
       </c>
       <c r="B209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C209" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E209" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F209" s="1">
         <v>45005</v>
@@ -9601,7 +9589,7 @@
         <v>1.3</v>
       </c>
       <c r="H209" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -9620,18 +9608,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9773,14 +9761,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9792,6 +9772,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
